--- a/data/china_sales_update.xlsx
+++ b/data/china_sales_update.xlsx
@@ -1,40 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rootn\OneDrive\Desktop\intern\car_sales\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE02B5E-C5B1-4126-AEE3-5691DF801D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="China" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>Geely</t>
+  </si>
+  <si>
+    <t>GALAXY</t>
+  </si>
+  <si>
+    <t>Lynk&amp;CO</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Chery</t>
+  </si>
+  <si>
+    <t>Jetour</t>
+  </si>
+  <si>
+    <t>Changan</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Wuling</t>
+  </si>
+  <si>
+    <t>Wuling (Silver)</t>
+  </si>
+  <si>
+    <t>Benz</t>
+  </si>
+  <si>
+    <t>Haval</t>
+  </si>
+  <si>
+    <t>TANK</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Roewe</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Hongqi</t>
+  </si>
+  <si>
+    <t>Leapmotor</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Buick</t>
+  </si>
+  <si>
+    <t>XPENG</t>
+  </si>
+  <si>
+    <t>GAC Trumpchi</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>Aion</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Lynk &amp; CO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +165,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,5977 +492,5646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BL34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
         <v>43831</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>43862</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>43891</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>43922</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>43952</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>43983</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>44013</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>44044</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>44075</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>44105</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>44136</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>44166</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>44197</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>44228</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>44256</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>44287</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>44317</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>44348</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>44378</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>44409</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>44440</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>44470</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>44501</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>44531</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>44562</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>44593</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>44621</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>44652</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>44682</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>44713</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>44743</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>44774</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>44805</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>44835</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>44866</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>44896</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>44927</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>44958</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>44986</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>45017</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>45047</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>45078</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>45108</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>45139</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>45170</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>45200</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>45231</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>45261</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>45292</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>45323</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>45352</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>45383</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>45413</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>45444</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>45474</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>45505</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>45536</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>45566</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>45597</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>45627</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>45658</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>45689</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>45717</v>
       </c>
+      <c r="BM1" s="1">
+        <v>45748</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>BYD</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>25060</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5437</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>30106</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>31076</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>31097</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>32624</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>30083</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>35508</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>40905</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>46560</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>52806</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>55075</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>42094</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>20695</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>39985</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>44606</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>45176</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>49765</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>56975</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>67630</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>79037</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>88898</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>97242</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>97990</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>95180</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>90268</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>104338</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>105475</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>114183</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>133762</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>162214</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>173977</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>200973</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>217168</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>226491</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>228596</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>143725</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>184339</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>195691</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>198941</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>228087</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>240627</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>249959</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>262571</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>273747</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>289595</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>288501</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>321570</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>185096</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>114060</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>286712</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>297864</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>315227</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>324838</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>328178</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>355679</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>401572</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>483437</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>485178</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>482652</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>278221</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>304673</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>350615</v>
       </c>
+      <c r="BM2">
+        <v>347053</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>VW</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>218386</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>17239</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>124616</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>203246</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>224421</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>234356</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>214327</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>242668</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>291677</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>274750</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>296690</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>266862</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>206148</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>117160</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>237371</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>167003</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>202704</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>116788</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>106491</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>176462</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>177012</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>197496</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>214719</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>245848</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>227953</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>156714</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>180786</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>68129</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>172527</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>245459</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>225610</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>216285</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>239596</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>205356</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>181801</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>212647</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>140537</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>126289</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>173081</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>151714</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>171196</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>205081</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>168475</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>192425</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>217090</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>212443</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>221778</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>241617</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>195947</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>103655</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>172823</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>147733</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>135493</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>154993</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>137571</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>157794</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>179424</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>194271</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>219134</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>219817</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>156050</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>118603</v>
       </c>
-      <c r="BL3" t="inlineStr"/>
+      <c r="BL3">
+        <v>172951</v>
+      </c>
+      <c r="BM3">
+        <v>136186</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Audi</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>53888</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8105</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>34753</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>55626</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>62083</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>56588</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>65008</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>66396</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>72298</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>63998</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>66756</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>50301</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>80008</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>43588</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>67188</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>68008</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>54788</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>53528</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>51008</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>38993</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>28742</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>37651</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>54157</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>65841</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>63054</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>43319</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>31706</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>14129</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>50624</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>74714</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>59676</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>58716</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>55725</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>53179</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>41452</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>52922</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>31473</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>39520</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>57118</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>43484</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>50203</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>70491</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>52510</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>56357</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>67834</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>51218</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>65884</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>77479</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>45373</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>34622</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>59441</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>51734</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>49023</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>52869</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>41678</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>45177</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>51175</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>47640</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>54314</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>62381</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>40308</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>32432</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>58906</v>
       </c>
+      <c r="BM4">
+        <v>34457</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Geely</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>102720</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>18817</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>65359</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>95130</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>95635</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>96978</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>88792</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>95235</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>106000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>116244</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>125712</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>127932</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>129644</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>64860</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>82668</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>80549</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>76575</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>81502</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>79185</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>79904</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>84500</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>86450</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>105383</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>123452</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>115639</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>58898</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>79390</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>52558</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>62704</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>93232</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>86026</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>81201</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>86086</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>111645</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>99045</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>87446</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>84438</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>77652</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>73296</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>70277</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>81399</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>86172</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>82875</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>90329</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>101862</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>105404</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>120547</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>78005</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>133880</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>71894</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>96136</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>93805</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>93814</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>92722</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>86514</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>100978</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>104533</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>123485</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>137281</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>105077</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>160514</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>126642</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>134619</v>
       </c>
+      <c r="BM5">
+        <v>133226</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>GALAXY</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6">
         <v>9673</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>10058</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>11117</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>13080</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>13711</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>13770</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>12088</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>19223</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>9120</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>10185</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>12725</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>14193</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>15975</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>16704</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>26510</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>29047</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>31242</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>34889</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>41392</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>48350</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>33931</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>43171</v>
       </c>
+      <c r="BM6">
+        <v>40926</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Lynk&amp;CO</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>9008</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2066</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>7369</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>10156</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>12950</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>13214</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>15331</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>17098</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>18745</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>21868</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>22798</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>24853</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>25501</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>11825</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>16390</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>19021</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>18059</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>17077</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>18225</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>6039</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>15823</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>22770</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>23789</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>25206</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>17965</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>9835</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>12621</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>9743</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>10637</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>12452</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>13953</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>14038</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>15482</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>14876</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>17405</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>21242</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>10422</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>11640</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>13647</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>13613</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>14188</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>15826</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>16748</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>18509</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>21447</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>24374</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>29657</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>25370</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>28032</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>13154</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>19265</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>18489</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>21076</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>23646</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>20646</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>22071</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>24865</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>29790</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>30654</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>24919</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>28885</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>16688</v>
       </c>
-      <c r="BL7" t="inlineStr"/>
+      <c r="BL7">
+        <v>24594</v>
+      </c>
+      <c r="BM7">
+        <v>26797</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>142503</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>12125</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>89023</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>134378</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>138713</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>148117</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>151952</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>118011</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>164941</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>136122</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>156504</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>144907</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>172045</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>91181</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>151582</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>133227</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>136552</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>147818</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>153329</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>89019</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>93468</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>133170</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>167701</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>186961</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>151159</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>125628</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>166941</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>99893</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>141688</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>202833</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>166637</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>161481</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>180905</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>155724</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>151006</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>134454</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>111801</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>118053</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>143157</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>138847</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>140626</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>159109</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>139740</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>145222</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>168094</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>150514</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>147648</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>186573</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>92706</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>74771</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>122346</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>106043</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>116552</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>129232</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>118807</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>130286</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>96470</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>137700</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>166635</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>177585</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>105967</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>80009</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>128592</v>
       </c>
+      <c r="BM8">
+        <v>107314</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Chery</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>31082</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>13582</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>23110</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>24714</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>24985</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>28230</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>34242</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>40232</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>42383</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>54625</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>64585</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>67393</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>50242</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>33661</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>52590</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>53478</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>43278</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>49575</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>54977</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>45799</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>52831</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>62851</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>75418</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>76609</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>65757</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>42758</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>59040</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>41048</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>61740</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>77835</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>100831</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>103746</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>107299</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>89659</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>67111</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>61866</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>71258</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>71729</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>85419</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>86733</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>99433</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>100674</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>104015</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>116331</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>126612</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>132673</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>139740</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>138007</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>137098</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>95764</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>120295</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>115176</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>120120</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>125500</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>122698</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>132324</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>148726</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>165464</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>169291</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>174430</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>131081</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>106312</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>122795</v>
       </c>
+      <c r="BM9">
+        <v>122652</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Jetour</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>12585</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3748</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5199</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>5760</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5198</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4877</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>8569</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>9703</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>10466</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>16108</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>20586</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>27904</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>14728</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>7184</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>13596</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>10399</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>10257</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>11326</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>15745</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>10282</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>10032</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>11136</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>19256</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>20136</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>10050</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>6700</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>10006</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>7735</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>11520</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>15036</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>16690</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>18979</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>19018</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>25174</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>17117</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>22042</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>16009</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>16432</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>19507</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>19005</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>19821</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>21607</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>21512</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>28007</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>32129</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>38053</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>41027</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>42058</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>42956</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>29017</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>35503</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>37248</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>36743</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>42088</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>41106</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>51785</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>60226</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>62655</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>63040</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>66020</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>58162</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>42257</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>54020</v>
       </c>
+      <c r="BM10">
+        <v>44060</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Changan</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>65870</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>14019</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>58843</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>57672</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>66397</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>75676</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>74896</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>78060</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>91083</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>101792</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>103731</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>73711</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>128246</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>85911</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>92901</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>88518</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>80875</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>71686</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>75663</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>70456</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>75188</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>85181</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>78672</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>65625</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>130509</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>55030</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>112113</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>49406</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>67289</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>100445</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>107294</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>54100</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>99810</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>119305</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>95383</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>134641</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>97582</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>94985</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>123453</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>86556</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>95761</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>102579</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>100814</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>100914</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>100410</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>106676</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>95311</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>61087</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>143480</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>65744</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>96431</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>89693</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>90190</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>99613</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>71535</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>81699</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>96470</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>112373</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>123986</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>99380</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>156205</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>73982</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>120896</v>
       </c>
+      <c r="BM11">
+        <v>80929</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Honda</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>128074</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>7118</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>41502</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>143626</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>132103</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>157431</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>150914</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>145796</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>181419</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>172496</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>180387</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>192823</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>148328</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>87163</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>145886</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>151469</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>113170</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>106486</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>101401</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>84106</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>136641</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>140402</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>161132</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>151766</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>154770</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>115804</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>147239</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>40208</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>82150</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>148002</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>153650</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>120490</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>112176</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>112878</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>83212</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>119309</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>68656</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>72540</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>116674</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>54056</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>99244</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>102483</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>93898</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>98652</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>132048</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>121444</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>134117</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>134374</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>101861</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>55235</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>96068</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>53959</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>63185</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>69398</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>47499</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>56642</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>66446</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>84670</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>72320</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>125491</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>35094</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>46642</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>84771</v>
       </c>
+      <c r="BM12">
+        <v>40492</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Tesla</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>3900</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>10160</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>3635</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>11095</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>14954</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>11014</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>11811</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>11329</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>12143</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>21604</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>23804</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>15484</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>18318</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>35503</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>25845</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>33463</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>33155</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>32968</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>44264</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>56006</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>54391</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>52859</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>70847</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>59845</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>56515</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>65814</v>
       </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>32165</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>78906</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>28217</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>76965</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>83135</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>71704</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>100291</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>55796</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>66051</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>74402</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>88869</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>75842</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>77695</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>93680</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>64285</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>84159</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13">
         <v>74073</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>72115</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>82432</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>94139</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>71447</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>60365</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13">
         <v>89064</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13">
         <v>62167</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13">
         <v>72573</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC13">
         <v>71007</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD13">
         <v>74117</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13">
         <v>86697</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>88321</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>68280</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>78856</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>93766</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>63238</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>30688</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>78828</v>
       </c>
+      <c r="BM13">
+        <v>58459</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Wuling</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>11616</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2540</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>10924</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>18347</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>20932</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>20299</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>26792</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>40780</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>48854</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>55134</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>68903</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>81625</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>55086</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>33322</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>66480</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>57068</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>48057</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>44439</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>50594</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>73529</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>74748</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>93609</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>101220</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>119889</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>54369</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>37958</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>71261</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>35147</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>59268</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>70755</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>84802</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>83041</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>88985</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>90767</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>113212</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>119005</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>9906</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>23618</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>33821</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>37439</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>39020</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>41655</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14">
         <v>11467</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14">
         <v>8515</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>12332</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>19435</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14">
         <v>33674</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14">
         <v>62603</v>
       </c>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>17157</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14">
         <v>21839</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14">
         <v>20365</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BB14">
         <v>15094</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC14">
         <v>15564</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD14">
         <v>10630</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14">
         <v>16171</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>28133</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>38044</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>48325</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>65887</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>30983</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>45671</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>54507</v>
       </c>
+      <c r="BM14">
+        <v>46129</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Wuling (Silver)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="n">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR15">
         <v>39687</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15">
         <v>40640</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15">
         <v>43603</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15">
         <v>45796</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15">
         <v>49087</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15">
         <v>70785</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15">
         <v>11923</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15">
         <v>21193</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15">
         <v>30889</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15">
         <v>30749</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB15">
         <v>29006</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC15">
         <v>30556</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD15">
         <v>20394</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15">
         <v>24769</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BF15">
         <v>42876</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BG15">
         <v>52740</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BH15">
         <v>64904</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BI15">
         <v>50410</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BJ15">
         <v>13803</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BK15">
         <v>18282</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BL15">
         <v>25540</v>
       </c>
+      <c r="BM15">
+        <v>32627</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Benz</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>48899</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>12175</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>53053</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>52806</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>58431</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>58310</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>59544</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>57473</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>63008</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>53964</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>62451</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>60624</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>68412</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>43152</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>63272</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>62884</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>53298</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>43832</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>33638</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>31735</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>31399</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>56580</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>53128</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>56874</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>57615</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>42421</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>50160</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>29460</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>42771</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>60036</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>66162</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>56131</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>69991</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>51462</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>51735</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16">
         <v>46796</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16">
         <v>44882</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16">
         <v>54212</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16">
         <v>56715</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16">
         <v>46381</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16">
         <v>53403</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16">
         <v>60976</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16">
         <v>54528</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16">
         <v>58370</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16">
         <v>58590</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16">
         <v>41894</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16">
         <v>37822</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16">
         <v>55620</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX16">
         <v>43571</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY16">
         <v>38224</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ16">
         <v>63645</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA16">
         <v>43024</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB16">
         <v>53363</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC16">
         <v>53556</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD16">
         <v>47935</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BE16">
         <v>48715</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BF16">
         <v>51731</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BG16">
         <v>41909</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BH16">
         <v>49082</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BI16">
         <v>54559</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BJ16">
         <v>40957</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BK16">
         <v>35970</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BL16">
         <v>53018</v>
       </c>
+      <c r="BM16">
+        <v>37058</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Haval</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>58720</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>7148</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>40337</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>57098</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>51915</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>46998</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>47517</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>56128</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>79120</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>97950</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>101812</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>105485</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>94474</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>61067</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>67187</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>55018</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>53849</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>59946</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>57196</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>40560</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>54561</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>62593</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>69170</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>94387</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>70228</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>41994</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>54534</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>29125</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>41748</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>51274</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>61279</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17">
         <v>50400</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17">
         <v>53960</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17">
         <v>63759</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17">
         <v>53923</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17">
         <v>44326</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17">
         <v>39192</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17">
         <v>39162</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17">
         <v>47419</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17">
         <v>52264</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17">
         <v>55600</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17">
         <v>59007</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17">
         <v>62967</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17">
         <v>66523</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17">
         <v>73766</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17">
         <v>78698</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17">
         <v>75012</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17">
         <v>65578</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX17">
         <v>59103</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY17">
         <v>44731</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ17">
         <v>54055</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA17">
         <v>47054</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB17">
         <v>47066</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC17">
         <v>47729</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD17">
         <v>52944</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BE17">
         <v>56166</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BF17">
         <v>62900</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BG17">
         <v>72675</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BH17">
         <v>78386</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BI17">
         <v>83425</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BJ17">
         <v>48557</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BK17">
         <v>43301</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BL17">
         <v>52732</v>
       </c>
+      <c r="BM17">
+        <v>56748</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>TANK</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="n">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR18">
         <v>11467</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18">
         <v>11638</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18">
         <v>13785</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18">
         <v>17040</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18">
         <v>14386</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18">
         <v>13143</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX18">
         <v>20067</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY18">
         <v>10164</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ18">
         <v>16005</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA18">
         <v>20469</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BB18">
         <v>20326</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC18">
         <v>26059</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD18">
         <v>15707</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BE18">
         <v>16350</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BF18">
         <v>18740</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BG18">
         <v>19123</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BH18">
         <v>20189</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BI18">
         <v>21879</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BJ18">
         <v>12845</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BK18">
         <v>11762</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BL18">
         <v>17381</v>
       </c>
+      <c r="BM18">
+        <v>19201</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>21969</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4998</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>17718</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>19013</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>19461</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>16579</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>17924</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>21278</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>27098</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>32077</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>44694</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>54509</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>28341</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>18367</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>33489</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>25440</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>25135</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>25862</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>27281</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>36021</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>45714</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>50326</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>69917</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>70419</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>26609</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>37398</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>31960</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>10361</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>43914</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>50380</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>54009</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19">
         <v>49853</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19">
         <v>47797</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19">
         <v>46008</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19">
         <v>58243</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19">
         <v>67383</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19">
         <v>42991</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19">
         <v>43480</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19">
         <v>67542</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19">
         <v>51729</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19">
         <v>54834</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19">
         <v>53282</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19">
         <v>51689</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19">
         <v>57019</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19">
         <v>64181</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19">
         <v>73017</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19">
         <v>78270</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19">
         <v>95953</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX19">
         <v>35214</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY19">
         <v>27420</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ19">
         <v>67172</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA19">
         <v>51708</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB19">
         <v>38038</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BC19">
         <v>38271</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD19">
         <v>36174</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BE19">
         <v>33216</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BF19">
         <v>39580</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BG19">
         <v>58865</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BH19">
         <v>52508</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BI19">
         <v>56787</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BJ19">
         <v>37463</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BK19">
         <v>35635</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BL19">
         <v>49571</v>
       </c>
+      <c r="BM19">
+        <v>52380</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Roewe</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>39822</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4686</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>15390</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>23968</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>35879</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>33369</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>34883</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>32135</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>37385</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>39168</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>38529</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>51188</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>33316</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>13596</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>27706</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>30223</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>28400</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>22341</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>22145</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>27456</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>34993</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>46700</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>31224</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>32180</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>38714</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>25873</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>28740</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>7517</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>25100</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>28922</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>29226</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20">
         <v>31530</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20">
         <v>24140</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20">
         <v>19692</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20">
         <v>12300</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20">
         <v>16188</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20">
         <v>12123</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20">
         <v>14838</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20">
         <v>13858</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20">
         <v>14696</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20">
         <v>15253</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20">
         <v>15907</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20">
         <v>17419</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20">
         <v>16678</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20">
         <v>25782</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20">
         <v>19421</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV20">
         <v>24352</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW20">
         <v>35940</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AX20">
         <v>13337</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AY20">
         <v>5113</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="AZ20">
         <v>11523</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BA20">
         <v>11421</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB20">
         <v>16081</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC20">
         <v>15998</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD20">
         <v>13836</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BE20">
         <v>18920</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BF20">
         <v>22035</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BG20">
         <v>23056</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BH20">
         <v>24760</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BI20">
         <v>23518</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BJ20">
         <v>12863</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BK20">
         <v>9699</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BL20">
         <v>18045</v>
       </c>
+      <c r="BM20">
+        <v>15454</v>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>50000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>7479</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>41184</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>55884</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>55198</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>59198</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>61205</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>63587</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>56329</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>47170</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>60869</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>53878</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>72930</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>40766</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>63354</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>59176</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>61064</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>57339</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>41758</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>56391</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>51557</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>52709</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>45514</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>49442</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>79087</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>43558</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>35723</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>31743</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>62567</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>62149</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>50705</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21">
         <v>59173</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21">
         <v>70358</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21">
         <v>51341</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21">
         <v>58527</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21">
         <v>60119</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21">
         <v>58267</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21">
         <v>52871</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21">
         <v>61628</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21">
         <v>49656</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21">
         <v>55443</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21">
         <v>56236</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21">
         <v>60985</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21">
         <v>61362</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21">
         <v>62607</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AU21">
         <v>57396</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AV21">
         <v>69383</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW21">
         <v>64166</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AX21">
         <v>63121</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AY21">
         <v>41604</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="AZ21">
         <v>56386</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BA21">
         <v>48565</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB21">
         <v>49708</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BC21">
         <v>56621</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD21">
         <v>50575</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BE21">
         <v>33123</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BF21">
         <v>43959</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BG21">
         <v>51679</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BH21">
         <v>56275</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BI21">
         <v>62786</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BJ21">
         <v>43507</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BK21">
         <v>35574</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BL21">
         <v>49136</v>
       </c>
+      <c r="BM21">
+        <v>42424</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>91027</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>14841</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>45506</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>83172</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>100003</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>107696</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>95237</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>103233</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>119035</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>118809</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>125016</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>129568</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>115552</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>55166</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>78007</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>86226</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>80820</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>85339</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>80136</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>81818</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>75515</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>80156</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>93508</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>88076</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>112068</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>75390</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>57010</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>38037</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>53032</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>80071</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>81042</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22">
         <v>78003</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22">
         <v>71342</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22">
         <v>72194</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22">
         <v>43386</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK22">
         <v>57130</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22">
         <v>30090</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM22">
         <v>60008</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN22">
         <v>55010</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO22">
         <v>40012</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22">
         <v>54002</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ22">
         <v>66072</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR22">
         <v>45400</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22">
         <v>52858</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22">
         <v>54568</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU22">
         <v>71002</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22">
         <v>73018</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW22">
         <v>60018</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX22">
         <v>73716</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY22">
         <v>29320</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ22">
         <v>54010</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA22">
         <v>48306</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB22">
         <v>55218</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC22">
         <v>44626</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD22">
         <v>33822</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE22">
         <v>31042</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BF22">
         <v>53102</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BG22">
         <v>51380</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BH22">
         <v>53052</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BI22">
         <v>52466</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BJ22">
         <v>47987</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BK22">
         <v>30006</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BL22">
         <v>40173</v>
       </c>
+      <c r="BM22">
+        <v>34011</v>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Hongqi</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>12626</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1110</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>8619</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>14519</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>15103</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>15420</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>16614</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>21020</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>21518</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>23018</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>25086</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>22031</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>32526</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>13009</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>24525</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>21905</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>26121</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>27126</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>25453</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>10039</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>20299</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>35009</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>25468</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>39133</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>42158</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23">
         <v>21643</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23">
         <v>12380</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23">
         <v>6812</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23">
         <v>25020</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23">
         <v>21859</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23">
         <v>22275</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23">
         <v>26012</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23">
         <v>33005</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23">
         <v>34252</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23">
         <v>25240</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23">
         <v>39421</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23">
         <v>18007</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM23">
         <v>13059</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN23">
         <v>30011</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO23">
         <v>22000</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP23">
         <v>25201</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AQ23">
         <v>33001</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AR23">
         <v>31533</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23">
         <v>38510</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT23">
         <v>39071</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AU23">
         <v>35000</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AV23">
         <v>36458</v>
       </c>
-      <c r="AW23" t="n">
+      <c r="AW23">
         <v>28926</v>
       </c>
-      <c r="AX23" t="n">
+      <c r="AX23">
         <v>40053</v>
       </c>
-      <c r="AY23" t="n">
+      <c r="AY23">
         <v>25196</v>
       </c>
-      <c r="AZ23" t="n">
+      <c r="AZ23">
         <v>35275</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA23">
         <v>29935</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB23">
         <v>30961</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC23">
         <v>40212</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD23">
         <v>30053</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BE23">
         <v>38674</v>
       </c>
-      <c r="BF23" t="n">
+      <c r="BF23">
         <v>42261</v>
       </c>
-      <c r="BG23" t="n">
+      <c r="BG23">
         <v>35391</v>
       </c>
-      <c r="BH23" t="n">
+      <c r="BH23">
         <v>37675</v>
       </c>
-      <c r="BI23" t="n">
+      <c r="BI23">
         <v>26656</v>
       </c>
-      <c r="BJ23" t="n">
+      <c r="BJ23">
         <v>43356</v>
       </c>
-      <c r="BK23" t="n">
+      <c r="BK23">
         <v>27560</v>
       </c>
-      <c r="BL23" t="n">
+      <c r="BL23">
         <v>38976</v>
       </c>
+      <c r="BM23">
+        <v>31459</v>
+      </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Leapmotor</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24">
         <v>7807</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>8085</v>
       </c>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
+      <c r="AB24">
         <v>10059</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24">
         <v>9087</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD24">
         <v>10069</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE24">
         <v>11259</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24">
         <v>12044</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24">
         <v>12525</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH24">
         <v>11039</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI24">
         <v>7026</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AJ24">
         <v>8047</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK24">
         <v>8493</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="n">
+      <c r="AN24">
         <v>6172</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO24">
         <v>8726</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AP24">
         <v>12058</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AQ24">
         <v>13209</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AR24">
         <v>14335</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS24">
         <v>14190</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AT24">
         <v>15800</v>
       </c>
-      <c r="AU24" t="n">
+      <c r="AU24">
         <v>18202</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AV24">
         <v>18508</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AW24">
         <v>18618</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AX24">
         <v>12277</v>
       </c>
-      <c r="AY24" t="n">
+      <c r="AY24">
         <v>6566</v>
       </c>
-      <c r="AZ24" t="n">
+      <c r="AZ24">
         <v>14567</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BA24">
         <v>15005</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BB24">
         <v>18165</v>
       </c>
-      <c r="BC24" t="n">
+      <c r="BC24">
         <v>20116</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BD24">
         <v>22093</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BE24">
         <v>28005</v>
       </c>
-      <c r="BF24" t="n">
+      <c r="BF24">
         <v>33767</v>
       </c>
-      <c r="BG24" t="n">
+      <c r="BG24">
         <v>38177</v>
       </c>
-      <c r="BH24" t="n">
+      <c r="BH24">
         <v>40169</v>
       </c>
-      <c r="BI24" t="n">
+      <c r="BI24">
         <v>42517</v>
       </c>
-      <c r="BJ24" t="n">
+      <c r="BJ24">
         <v>25170</v>
       </c>
-      <c r="BK24" t="n">
+      <c r="BK24">
         <v>25287</v>
       </c>
-      <c r="BL24" t="n">
+      <c r="BL24">
         <v>37095</v>
       </c>
+      <c r="BM24">
+        <v>41039</v>
+      </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
         <v>1447</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2622</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>4646</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>6126</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>5379</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>2300</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>4900</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>5539</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>4323</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>7713</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>8589</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>9433</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>7094</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>7649</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>13485</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>14087</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>12268</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA25">
         <v>8414</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB25">
         <v>11034</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25">
         <v>4167</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD25">
         <v>11496</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE25">
         <v>13024</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25">
         <v>10422</v>
       </c>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="n">
+      <c r="AH25">
         <v>11531</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI25">
         <v>10052</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AJ25">
         <v>15034</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AK25">
         <v>21233</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AL25">
         <v>15141</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AM25">
         <v>16620</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN25">
         <v>20823</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AO25">
         <v>25681</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AP25">
         <v>28277</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AQ25">
         <v>32575</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AR25">
         <v>34134</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AS25">
         <v>34914</v>
       </c>
-      <c r="AT25" t="n">
+      <c r="AT25">
         <v>36060</v>
       </c>
-      <c r="AU25" t="n">
+      <c r="AU25">
         <v>40423</v>
       </c>
-      <c r="AV25" t="n">
+      <c r="AV25">
         <v>41030</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="AW25">
         <v>50354</v>
       </c>
-      <c r="AX25" t="n">
+      <c r="AX25">
         <v>31166</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="AY25">
         <v>20252</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="AZ25">
         <v>28984</v>
       </c>
-      <c r="BA25" t="n">
+      <c r="BA25">
         <v>25787</v>
       </c>
-      <c r="BB25" t="n">
+      <c r="BB25">
         <v>35020</v>
       </c>
-      <c r="BC25" t="n">
+      <c r="BC25">
         <v>47774</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BD25">
         <v>51000</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BE25">
         <v>48122</v>
       </c>
-      <c r="BF25" t="n">
+      <c r="BF25">
         <v>53709</v>
       </c>
-      <c r="BG25" t="n">
+      <c r="BG25">
         <v>51443</v>
       </c>
-      <c r="BH25" t="n">
+      <c r="BH25">
         <v>48743</v>
       </c>
-      <c r="BI25" t="n">
+      <c r="BI25">
         <v>58513</v>
       </c>
-      <c r="BJ25" t="n">
+      <c r="BJ25">
         <v>29927</v>
       </c>
-      <c r="BK25" t="n">
+      <c r="BK25">
         <v>26264</v>
       </c>
-      <c r="BL25" t="n">
+      <c r="BL25">
         <v>36674</v>
       </c>
+      <c r="BM25">
+        <v>33939</v>
+      </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Buick</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>68876</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4078</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>26717</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>69528</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>81585</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>75701</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>76927</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>86249</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>98722</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>99057</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>110298</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>128591</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>86910</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>52460</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>83036</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>49271</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>46767</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>49200</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>58316</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>64358</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>84257</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26">
         <v>82103</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>81137</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>90821</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>61967</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA26">
         <v>42048</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26">
         <v>57117</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26">
         <v>16490</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD26">
         <v>50990</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE26">
         <v>75866</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF26">
         <v>70106</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG26">
         <v>67497</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH26">
         <v>64478</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI26">
         <v>71302</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ26">
         <v>52721</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK26">
         <v>47346</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL26">
         <v>33447</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM26">
         <v>41437</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN26">
         <v>41226</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO26">
         <v>44500</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP26">
         <v>51777</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ26">
         <v>52472</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR26">
         <v>45839</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS26">
         <v>52420</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT26">
         <v>65507</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU26">
         <v>55356</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV26">
         <v>55035</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW26">
         <v>67388</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AX26">
         <v>27012</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY26">
         <v>8539</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ26">
         <v>41229</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA26">
         <v>32294</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB26">
         <v>28856</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BC26">
         <v>22159</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD26">
         <v>12492</v>
       </c>
-      <c r="BE26" t="n">
+      <c r="BE26">
         <v>13671</v>
       </c>
-      <c r="BF26" t="n">
+      <c r="BF26">
         <v>17122</v>
       </c>
-      <c r="BG26" t="n">
+      <c r="BG26">
         <v>25758</v>
       </c>
-      <c r="BH26" t="n">
+      <c r="BH26">
         <v>42351</v>
       </c>
-      <c r="BI26" t="n">
+      <c r="BI26">
         <v>51395</v>
       </c>
-      <c r="BJ26" t="n">
+      <c r="BJ26">
         <v>24819</v>
       </c>
-      <c r="BK26" t="n">
+      <c r="BK26">
         <v>23607</v>
       </c>
-      <c r="BL26" t="n">
+      <c r="BL26">
         <v>36605</v>
       </c>
+      <c r="BM26">
+        <v>34535</v>
+      </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>XPENG</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27">
         <v>4650</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>6420</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>6015</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>2223</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>5102</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>5147</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>5686</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>6565</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>8040</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>7214</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>10412</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27">
         <v>10138</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>15613</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>16000</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>12922</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA27">
         <v>6225</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27">
         <v>15414</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27">
         <v>9002</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD27">
         <v>10125</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AE27">
         <v>15295</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27">
         <v>11524</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG27">
         <v>9578</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AH27">
         <v>8468</v>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
+      <c r="AJ27">
         <v>5811</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AK27">
         <v>11292</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AL27">
         <v>5218</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AM27">
         <v>6010</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AN27">
         <v>7002</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AO27">
         <v>7079</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AP27">
         <v>7506</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AQ27">
         <v>8620</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AR27">
         <v>11008</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AS27">
         <v>13988</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="AT27">
         <v>16076</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AU27">
         <v>20612</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AV27">
         <v>20935</v>
       </c>
-      <c r="AW27" t="n">
+      <c r="AW27">
         <v>20107</v>
       </c>
-      <c r="AX27" t="n">
+      <c r="AX27">
         <v>8648</v>
       </c>
-      <c r="AY27" t="n">
+      <c r="AY27">
         <v>5253</v>
       </c>
-      <c r="AZ27" t="n">
+      <c r="AZ27">
         <v>9937</v>
       </c>
-      <c r="BA27" t="n">
+      <c r="BA27">
         <v>10405</v>
       </c>
-      <c r="BB27" t="n">
+      <c r="BB27">
         <v>11724</v>
       </c>
-      <c r="BC27" t="n">
+      <c r="BC27">
         <v>12508</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BD27">
         <v>13003</v>
       </c>
-      <c r="BE27" t="n">
+      <c r="BE27">
         <v>14036</v>
       </c>
-      <c r="BF27" t="n">
+      <c r="BF27">
         <v>21352</v>
       </c>
-      <c r="BG27" t="n">
+      <c r="BG27">
         <v>23917</v>
       </c>
-      <c r="BH27" t="n">
+      <c r="BH27">
         <v>30895</v>
       </c>
-      <c r="BI27" t="n">
+      <c r="BI27">
         <v>36695</v>
       </c>
-      <c r="BJ27" t="n">
+      <c r="BJ27">
         <v>30350</v>
       </c>
-      <c r="BK27" t="n">
+      <c r="BK27">
         <v>30453</v>
       </c>
-      <c r="BL27" t="n">
+      <c r="BL27">
         <v>33205</v>
       </c>
+      <c r="BM27">
+        <v>35045</v>
+      </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GAC Trumpchi</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>33976</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4095</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>17865</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>18927</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>23136</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>22641</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>23732</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>26943</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>31671</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>31387</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>33987</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>32171</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>34992</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>14126</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>27153</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>26502</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>26797</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>25332</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>29665</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>18594</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>22989</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28">
         <v>35489</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>35902</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>33068</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>37278</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA28">
         <v>24399</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28">
         <v>30369</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28">
         <v>20205</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD28">
         <v>29511</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE28">
         <v>32837</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28">
         <v>31408</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG28">
         <v>30101</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AH28">
         <v>33608</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AI28">
         <v>31404</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AJ28">
         <v>25850</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AK28">
         <v>38145</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL28">
         <v>24139</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AM28">
         <v>26923</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AN28">
         <v>34904</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AO28">
         <v>30046</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AP28">
         <v>32809</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AQ28">
         <v>41134</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AR28">
         <v>31344</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AS28">
         <v>37585</v>
       </c>
-      <c r="AT28" t="n">
+      <c r="AT28">
         <v>37286</v>
       </c>
-      <c r="AU28" t="n">
+      <c r="AU28">
         <v>38010</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AV28">
         <v>37216</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="AW28">
         <v>35325</v>
       </c>
-      <c r="AX28" t="n">
+      <c r="AX28">
         <v>33799</v>
       </c>
-      <c r="AY28" t="n">
+      <c r="AY28">
         <v>18472</v>
       </c>
-      <c r="AZ28" t="n">
+      <c r="AZ28">
         <v>33213</v>
       </c>
-      <c r="BA28" t="n">
+      <c r="BA28">
         <v>37733</v>
       </c>
-      <c r="BB28" t="n">
+      <c r="BB28">
         <v>32881</v>
       </c>
-      <c r="BC28" t="n">
+      <c r="BC28">
         <v>32784</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BD28">
         <v>25797</v>
       </c>
-      <c r="BE28" t="n">
+      <c r="BE28">
         <v>27530</v>
       </c>
-      <c r="BF28" t="n">
+      <c r="BF28">
         <v>34768</v>
       </c>
-      <c r="BG28" t="n">
+      <c r="BG28">
         <v>35152</v>
       </c>
-      <c r="BH28" t="n">
+      <c r="BH28">
         <v>44406</v>
       </c>
-      <c r="BI28" t="n">
+      <c r="BI28">
         <v>58056</v>
       </c>
-      <c r="BJ28" t="n">
+      <c r="BJ28">
         <v>18277</v>
       </c>
-      <c r="BK28" t="n">
+      <c r="BK28">
         <v>18449</v>
       </c>
-      <c r="BL28" t="n">
+      <c r="BL28">
         <v>32465</v>
       </c>
+      <c r="BM28">
+        <v>24651</v>
+      </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="n">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA29">
         <v>7058</v>
       </c>
-      <c r="BB29" t="n">
+      <c r="BB29">
         <v>8646</v>
       </c>
-      <c r="BC29" t="n">
+      <c r="BC29">
         <v>14296</v>
       </c>
-      <c r="BD29" t="n">
+      <c r="BD29">
         <v>13120</v>
       </c>
-      <c r="BE29" t="n">
+      <c r="BE29">
         <v>13007</v>
       </c>
-      <c r="BF29" t="n">
+      <c r="BF29">
         <v>13559</v>
       </c>
-      <c r="BG29" t="n">
+      <c r="BG29">
         <v>20726</v>
       </c>
-      <c r="BH29" t="n">
+      <c r="BH29">
         <v>23156</v>
       </c>
-      <c r="BI29" t="n">
+      <c r="BI29">
         <v>25815</v>
       </c>
-      <c r="BJ29" t="n">
+      <c r="BJ29">
         <v>22897</v>
       </c>
-      <c r="BK29" t="n">
+      <c r="BK29">
         <v>23728</v>
       </c>
-      <c r="BL29" t="n">
+      <c r="BL29">
         <v>29244</v>
       </c>
+      <c r="BM29">
+        <v>28585</v>
+      </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Aion</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>2949</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1583</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3458</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>3950</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>4084</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>4188</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>4993</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>6239</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>6876</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>7013</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>7190</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>7020</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>7356</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>3239</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>7013</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>8305</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>8416</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>8536</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>10506</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>11613</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>13572</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30">
         <v>12064</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>16064</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30">
         <v>16072</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z30">
         <v>16660</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA30">
         <v>9017</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30">
         <v>22006</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC30">
         <v>11230</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD30">
         <v>22088</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE30">
         <v>25023</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30">
         <v>25477</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG30">
         <v>28920</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH30">
         <v>32526</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI30">
         <v>32402</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ30">
         <v>31133</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK30">
         <v>32493</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL30">
         <v>10740</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AM30">
         <v>31105</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN30">
         <v>42402</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AO30">
         <v>45428</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AP30">
         <v>47366</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AQ30">
         <v>47121</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AR30">
         <v>45651</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AS30">
         <v>46042</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AT30">
         <v>52428</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AU30">
         <v>41993</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AV30">
         <v>39785</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AW30">
         <v>44541</v>
       </c>
-      <c r="AX30" t="n">
+      <c r="AX30">
         <v>10396</v>
       </c>
-      <c r="AY30" t="n">
+      <c r="AY30">
         <v>10105</v>
       </c>
-      <c r="AZ30" t="n">
+      <c r="AZ30">
         <v>28094</v>
       </c>
-      <c r="BA30" t="n">
+      <c r="BA30">
         <v>21162</v>
       </c>
-      <c r="BB30" t="n">
+      <c r="BB30">
         <v>29982</v>
       </c>
-      <c r="BC30" t="n">
+      <c r="BC30">
         <v>25557</v>
       </c>
-      <c r="BD30" t="n">
+      <c r="BD30">
         <v>28011</v>
       </c>
-      <c r="BE30" t="n">
+      <c r="BE30">
         <v>30891</v>
       </c>
-      <c r="BF30" t="n">
+      <c r="BF30">
         <v>37974</v>
       </c>
-      <c r="BG30" t="n">
+      <c r="BG30">
         <v>35105</v>
       </c>
-      <c r="BH30" t="n">
+      <c r="BH30">
         <v>38708</v>
       </c>
-      <c r="BI30" t="n">
+      <c r="BI30">
         <v>62437</v>
       </c>
-      <c r="BJ30" t="n">
+      <c r="BJ30">
         <v>6923</v>
       </c>
-      <c r="BK30" t="n">
+      <c r="BK30">
         <v>13713</v>
       </c>
-      <c r="BL30" t="n">
+      <c r="BL30">
         <v>23615</v>
       </c>
+      <c r="BM30">
+        <v>22310</v>
+      </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Hyundai</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
         <v>33302</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1668</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>30838</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>34244</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>40134</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>44128</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>38154</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>40153</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>40195</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>42596</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>49426</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>51343</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>40191</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>19080</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>37060</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>31328</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>34275</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>32151</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>23946</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>23754</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>19390</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31">
         <v>25755</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31">
         <v>33302</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31">
         <v>40333</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z31">
         <v>24056</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AA31">
         <v>16457</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB31">
         <v>17102</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC31">
         <v>10012</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD31">
         <v>8435</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE31">
         <v>18097</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF31">
         <v>24031</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG31">
         <v>26065</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AH31">
         <v>33007</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AI31">
         <v>26554</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AJ31">
         <v>21552</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AK31">
         <v>25056</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AL31">
         <v>15028</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AM31">
         <v>17003</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AN31">
         <v>27013</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="AO31">
         <v>16003</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AP31">
         <v>19262</v>
       </c>
-      <c r="AQ31" t="n">
+      <c r="AQ31">
         <v>24018</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AR31">
         <v>12530</v>
       </c>
-      <c r="AS31" t="n">
+      <c r="AS31">
         <v>20178</v>
       </c>
-      <c r="AT31" t="n">
+      <c r="AT31">
         <v>22394</v>
       </c>
-      <c r="AU31" t="n">
+      <c r="AU31">
         <v>18827</v>
       </c>
-      <c r="AV31" t="n">
+      <c r="AV31">
         <v>21661</v>
       </c>
-      <c r="AW31" t="n">
+      <c r="AW31">
         <v>28525</v>
       </c>
-      <c r="AX31" t="n">
+      <c r="AX31">
         <v>14224</v>
       </c>
-      <c r="AY31" t="n">
+      <c r="AY31">
         <v>12110</v>
       </c>
-      <c r="AZ31" t="n">
+      <c r="AZ31">
         <v>21440</v>
       </c>
-      <c r="BA31" t="n">
+      <c r="BA31">
         <v>12645</v>
       </c>
-      <c r="BB31" t="n">
+      <c r="BB31">
         <v>16617</v>
       </c>
-      <c r="BC31" t="n">
+      <c r="BC31">
         <v>14524</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="BD31">
         <v>7220</v>
       </c>
-      <c r="BE31" t="n">
+      <c r="BE31">
         <v>13007</v>
       </c>
-      <c r="BF31" t="n">
+      <c r="BF31">
         <v>15553</v>
       </c>
-      <c r="BG31" t="n">
+      <c r="BG31">
         <v>11024</v>
       </c>
-      <c r="BH31" t="n">
+      <c r="BH31">
         <v>16349</v>
       </c>
-      <c r="BI31" t="n">
+      <c r="BI31">
         <v>15112</v>
       </c>
-      <c r="BJ31" t="n">
+      <c r="BJ31">
         <v>16810</v>
       </c>
-      <c r="BK31" t="n">
+      <c r="BK31">
         <v>10585</v>
       </c>
-      <c r="BL31" t="n">
+      <c r="BL31">
         <v>16825</v>
       </c>
+      <c r="BM31">
+        <v>14964</v>
+      </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Kia</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>23954</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1572</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>17626</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>23534</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>23829</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>22223</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>20570</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>20390</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>26141</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>26485</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>23429</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>19504</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>17857</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>9872</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>9456</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>12530</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>13544</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>13998</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>13639</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>11725</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>9307</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W32">
         <v>13687</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32">
         <v>12301</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32">
         <v>15939</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z32">
         <v>13780</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA32">
         <v>11079</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB32">
         <v>11149</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AC32">
         <v>5697</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD32">
         <v>8082</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AE32">
         <v>12641</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32">
         <v>14730</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG32">
         <v>11190</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AH32">
         <v>11311</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AI32">
         <v>10995</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AJ32">
         <v>9647</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AK32">
         <v>10324</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AL32">
         <v>8757</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AM32">
         <v>10214</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AN32">
         <v>9594</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AO32">
         <v>9835</v>
       </c>
-      <c r="AP32" t="n">
+      <c r="AP32">
         <v>9613</v>
       </c>
-      <c r="AQ32" t="n">
+      <c r="AQ32">
         <v>15844</v>
       </c>
-      <c r="AR32" t="n">
+      <c r="AR32">
         <v>15836</v>
       </c>
-      <c r="AS32" t="n">
+      <c r="AS32">
         <v>16519</v>
       </c>
-      <c r="AT32" t="n">
+      <c r="AT32">
         <v>16605</v>
       </c>
-      <c r="AU32" t="n">
+      <c r="AU32">
         <v>17102</v>
       </c>
-      <c r="AV32" t="n">
+      <c r="AV32">
         <v>18245</v>
       </c>
-      <c r="AW32" t="n">
+      <c r="AW32">
         <v>19062</v>
       </c>
-      <c r="AX32" t="n">
+      <c r="AX32">
         <v>15112</v>
       </c>
-      <c r="AY32" t="n">
+      <c r="AY32">
         <v>11838</v>
       </c>
-      <c r="AZ32" t="n">
+      <c r="AZ32">
         <v>22787</v>
       </c>
-      <c r="BA32" t="n">
+      <c r="BA32">
         <v>19807</v>
       </c>
-      <c r="BB32" t="n">
+      <c r="BB32">
         <v>19083</v>
       </c>
-      <c r="BC32" t="n">
+      <c r="BC32">
         <v>20652</v>
       </c>
-      <c r="BD32" t="n">
+      <c r="BD32">
         <v>22151</v>
       </c>
-      <c r="BE32" t="n">
+      <c r="BE32">
         <v>22498</v>
       </c>
-      <c r="BF32" t="n">
+      <c r="BF32">
         <v>21958</v>
       </c>
-      <c r="BG32" t="n">
+      <c r="BG32">
         <v>23690</v>
       </c>
-      <c r="BH32" t="n">
+      <c r="BH32">
         <v>24280</v>
       </c>
-      <c r="BI32" t="n">
+      <c r="BI32">
         <v>24062</v>
       </c>
-      <c r="BJ32" t="n">
+      <c r="BJ32">
         <v>15699</v>
       </c>
-      <c r="BK32" t="n">
+      <c r="BK32">
         <v>17902</v>
       </c>
-      <c r="BL32" t="n">
+      <c r="BL32">
         <v>22949</v>
       </c>
+      <c r="BM32">
+        <v>22155</v>
+      </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Lynk &amp; CO</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
-      <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
-      <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="inlineStr"/>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="n">
-        <v>24594</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="n">
-        <v>172951</v>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/china_sales_update.xlsx
+++ b/data/china_sales_update.xlsx
@@ -1,167 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rootn\OneDrive\Desktop\intern\car_sales\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBB3A5-F0DA-4349-AA2C-8266B4B6FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="China" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>BYD</t>
-  </si>
-  <si>
-    <t>VW</t>
-  </si>
-  <si>
-    <t>Audi</t>
-  </si>
-  <si>
-    <t>Geely</t>
-  </si>
-  <si>
-    <t>GALAXY</t>
-  </si>
-  <si>
-    <t>Lynk&amp;CO</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Chery</t>
-  </si>
-  <si>
-    <t>Jetour</t>
-  </si>
-  <si>
-    <t>Changan</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>Wuling</t>
-  </si>
-  <si>
-    <t>Wuling (Silver)</t>
-  </si>
-  <si>
-    <t>Benz</t>
-  </si>
-  <si>
-    <t>Haval</t>
-  </si>
-  <si>
-    <t>TANK</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Roewe</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>Hongqi</t>
-  </si>
-  <si>
-    <t>Leapmotor</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>Buick</t>
-  </si>
-  <si>
-    <t>XPENG</t>
-  </si>
-  <si>
-    <t>GAC Trumpchi</t>
-  </si>
-  <si>
-    <t>XIAOMI</t>
-  </si>
-  <si>
-    <t>Aion</t>
-  </si>
-  <si>
-    <t>Hyundai</t>
-  </si>
-  <si>
-    <t>Kia</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -176,47 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,5879 +426,6029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="65" width="10.625" style="2" customWidth="1"/>
-    <col min="66" max="16384" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>43831</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="1" t="n">
         <v>43862</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="1" t="n">
         <v>43922</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="1" t="n">
         <v>43952</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="1" t="n">
         <v>43983</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="1" t="n">
         <v>44013</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="1" t="n">
         <v>44044</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="1" t="n">
         <v>44075</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="1" t="n">
         <v>44136</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="1" t="n">
         <v>44166</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="1" t="n">
         <v>44197</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="1" t="n">
         <v>44228</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="1" t="n">
         <v>44256</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="1" t="n">
         <v>44287</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="1" t="n">
         <v>44317</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="1" t="n">
         <v>44348</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="1" t="n">
         <v>44378</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="1" t="n">
         <v>44409</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="1" t="n">
         <v>44440</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="1" t="n">
         <v>44470</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="1" t="n">
         <v>44501</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="1" t="n">
         <v>44531</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="1" t="n">
         <v>44562</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="1" t="n">
         <v>44593</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="1" t="n">
         <v>44621</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="1" t="n">
         <v>44652</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="1" t="n">
         <v>44682</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="1" t="n">
         <v>44713</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="1" t="n">
         <v>44743</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="1" t="n">
         <v>44774</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="1" t="n">
         <v>44805</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="1" t="n">
         <v>44896</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="1" t="n">
         <v>44927</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="1" t="n">
         <v>44958</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="1" t="n">
         <v>44986</v>
       </c>
-      <c r="AO1" s="4">
+      <c r="AO1" s="1" t="n">
         <v>45017</v>
       </c>
-      <c r="AP1" s="4">
+      <c r="AP1" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="1" t="n">
         <v>45078</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="1" t="n">
         <v>45108</v>
       </c>
-      <c r="AS1" s="4">
+      <c r="AS1" s="1" t="n">
         <v>45139</v>
       </c>
-      <c r="AT1" s="4">
+      <c r="AT1" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="AU1" s="4">
+      <c r="AU1" s="1" t="n">
         <v>45200</v>
       </c>
-      <c r="AV1" s="4">
+      <c r="AV1" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="AW1" s="4">
+      <c r="AW1" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="AX1" s="4">
+      <c r="AX1" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="AY1" s="4">
+      <c r="AY1" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="AZ1" s="4">
+      <c r="AZ1" s="1" t="n">
         <v>45352</v>
       </c>
-      <c r="BA1" s="4">
+      <c r="BA1" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="BB1" s="4">
+      <c r="BB1" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="BC1" s="4">
+      <c r="BC1" s="1" t="n">
         <v>45444</v>
       </c>
-      <c r="BD1" s="4">
+      <c r="BD1" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="BE1" s="4">
+      <c r="BE1" s="1" t="n">
         <v>45505</v>
       </c>
-      <c r="BF1" s="4">
+      <c r="BF1" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="BG1" s="4">
+      <c r="BG1" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="BH1" s="4">
+      <c r="BH1" s="1" t="n">
         <v>45597</v>
       </c>
-      <c r="BI1" s="4">
+      <c r="BI1" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="BJ1" s="4">
+      <c r="BJ1" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="BK1" s="4">
+      <c r="BK1" s="1" t="n">
         <v>45689</v>
       </c>
-      <c r="BL1" s="4">
+      <c r="BL1" s="1" t="n">
         <v>45717</v>
       </c>
-      <c r="BM1" s="4">
+      <c r="BM1" s="1" t="n">
         <v>45748</v>
       </c>
+      <c r="BN1" s="1" t="n">
+        <v>45778</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>BYD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>25060</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" t="n">
         <v>5437</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" t="n">
         <v>30106</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" t="n">
         <v>31076</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" t="n">
         <v>31097</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" t="n">
         <v>32624</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" t="n">
         <v>30083</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" t="n">
         <v>35508</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" t="n">
         <v>40905</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" t="n">
         <v>46560</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" t="n">
         <v>52806</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" t="n">
         <v>55075</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" t="n">
         <v>42094</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" t="n">
         <v>20695</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" t="n">
         <v>39985</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" t="n">
         <v>44606</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" t="n">
         <v>45176</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" t="n">
         <v>49765</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" t="n">
         <v>56975</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" t="n">
         <v>67630</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" t="n">
         <v>79037</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" t="n">
         <v>88898</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" t="n">
         <v>97242</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" t="n">
         <v>97990</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" t="n">
         <v>95180</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" t="n">
         <v>90268</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" t="n">
         <v>104338</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" t="n">
         <v>105475</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" t="n">
         <v>114183</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" t="n">
         <v>133762</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" t="n">
         <v>162214</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" t="n">
         <v>173977</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" t="n">
         <v>200973</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" t="n">
         <v>217168</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" t="n">
         <v>226491</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" t="n">
         <v>228596</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" t="n">
         <v>143725</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" t="n">
         <v>184339</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" t="n">
         <v>195691</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AO2" t="n">
         <v>198941</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" t="n">
         <v>228087</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AQ2" t="n">
         <v>240627</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" t="n">
         <v>249959</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" t="n">
         <v>262571</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" t="n">
         <v>273747</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AU2" t="n">
         <v>289595</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" t="n">
         <v>288501</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" t="n">
         <v>321570</v>
       </c>
-      <c r="AX2" s="5">
+      <c r="AX2" t="n">
         <v>185096</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="AY2" t="n">
         <v>114060</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="AZ2" t="n">
         <v>286712</v>
       </c>
-      <c r="BA2" s="5">
+      <c r="BA2" t="n">
         <v>297864</v>
       </c>
-      <c r="BB2" s="5">
+      <c r="BB2" t="n">
         <v>315227</v>
       </c>
-      <c r="BC2" s="5">
+      <c r="BC2" t="n">
         <v>324838</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" t="n">
         <v>328178</v>
       </c>
-      <c r="BE2" s="5">
+      <c r="BE2" t="n">
         <v>355679</v>
       </c>
-      <c r="BF2" s="5">
+      <c r="BF2" t="n">
         <v>401572</v>
       </c>
-      <c r="BG2" s="5">
+      <c r="BG2" t="n">
         <v>483437</v>
       </c>
-      <c r="BH2" s="5">
+      <c r="BH2" t="n">
         <v>485178</v>
       </c>
-      <c r="BI2" s="5">
+      <c r="BI2" t="n">
         <v>482652</v>
       </c>
-      <c r="BJ2" s="5">
+      <c r="BJ2" t="n">
         <v>278221</v>
       </c>
-      <c r="BK2" s="5">
+      <c r="BK2" t="n">
         <v>304673</v>
       </c>
-      <c r="BL2" s="5">
+      <c r="BL2" t="n">
         <v>350615</v>
       </c>
-      <c r="BM2" s="5">
+      <c r="BM2" t="n">
         <v>347053</v>
       </c>
+      <c r="BN2" t="n">
+        <v>348393</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>VW</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>218386</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" t="n">
         <v>17239</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" t="n">
         <v>124616</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" t="n">
         <v>203246</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" t="n">
         <v>224421</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" t="n">
         <v>234356</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" t="n">
         <v>214327</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" t="n">
         <v>242668</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" t="n">
         <v>291677</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" t="n">
         <v>274750</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" t="n">
         <v>296690</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" t="n">
         <v>266862</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" t="n">
         <v>206148</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" t="n">
         <v>117160</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" t="n">
         <v>237371</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" t="n">
         <v>167003</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" t="n">
         <v>202704</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" t="n">
         <v>116788</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" t="n">
         <v>106491</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" t="n">
         <v>176462</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" t="n">
         <v>177012</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" t="n">
         <v>197496</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" t="n">
         <v>214719</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" t="n">
         <v>245848</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" t="n">
         <v>227953</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" t="n">
         <v>156714</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" t="n">
         <v>180786</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" t="n">
         <v>68129</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" t="n">
         <v>172527</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" t="n">
         <v>245459</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" t="n">
         <v>225610</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" t="n">
         <v>216285</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" t="n">
         <v>239596</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" t="n">
         <v>205356</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" t="n">
         <v>181801</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" t="n">
         <v>212647</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" t="n">
         <v>140537</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" t="n">
         <v>126289</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AN3" t="n">
         <v>173081</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AO3" t="n">
         <v>151714</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" t="n">
         <v>171196</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="AQ3" t="n">
         <v>205081</v>
       </c>
-      <c r="AR3" s="5">
+      <c r="AR3" t="n">
         <v>168475</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="AS3" t="n">
         <v>192425</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AT3" t="n">
         <v>217090</v>
       </c>
-      <c r="AU3" s="5">
+      <c r="AU3" t="n">
         <v>212443</v>
       </c>
-      <c r="AV3" s="5">
+      <c r="AV3" t="n">
         <v>221778</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW3" t="n">
         <v>241617</v>
       </c>
-      <c r="AX3" s="5">
+      <c r="AX3" t="n">
         <v>195947</v>
       </c>
-      <c r="AY3" s="5">
+      <c r="AY3" t="n">
         <v>103655</v>
       </c>
-      <c r="AZ3" s="5">
+      <c r="AZ3" t="n">
         <v>172823</v>
       </c>
-      <c r="BA3" s="5">
+      <c r="BA3" t="n">
         <v>147733</v>
       </c>
-      <c r="BB3" s="5">
+      <c r="BB3" t="n">
         <v>135493</v>
       </c>
-      <c r="BC3" s="5">
+      <c r="BC3" t="n">
         <v>154993</v>
       </c>
-      <c r="BD3" s="5">
+      <c r="BD3" t="n">
         <v>137571</v>
       </c>
-      <c r="BE3" s="5">
+      <c r="BE3" t="n">
         <v>157794</v>
       </c>
-      <c r="BF3" s="5">
+      <c r="BF3" t="n">
         <v>179424</v>
       </c>
-      <c r="BG3" s="5">
+      <c r="BG3" t="n">
         <v>194271</v>
       </c>
-      <c r="BH3" s="5">
+      <c r="BH3" t="n">
         <v>219134</v>
       </c>
-      <c r="BI3" s="5">
+      <c r="BI3" t="n">
         <v>219817</v>
       </c>
-      <c r="BJ3" s="5">
+      <c r="BJ3" t="n">
         <v>156050</v>
       </c>
-      <c r="BK3" s="5">
+      <c r="BK3" t="n">
         <v>118603</v>
       </c>
-      <c r="BL3" s="5">
+      <c r="BL3" t="n">
         <v>172951</v>
       </c>
-      <c r="BM3" s="5">
+      <c r="BM3" t="n">
         <v>136186</v>
       </c>
+      <c r="BN3" t="n">
+        <v>147546</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>102720</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" t="n">
         <v>18817</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" t="n">
         <v>65359</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" t="n">
         <v>95130</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" t="n">
         <v>95635</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" t="n">
         <v>96978</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" t="n">
         <v>88792</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" t="n">
         <v>95235</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" t="n">
         <v>106000</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" t="n">
         <v>116244</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" t="n">
         <v>125712</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" t="n">
         <v>127932</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" t="n">
         <v>129644</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" t="n">
         <v>64860</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" t="n">
         <v>82668</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" t="n">
         <v>80549</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" t="n">
         <v>76575</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" t="n">
         <v>81502</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" t="n">
         <v>79185</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" t="n">
         <v>79904</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" t="n">
         <v>84500</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" t="n">
         <v>86450</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" t="n">
         <v>105383</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" t="n">
         <v>123452</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" t="n">
         <v>115639</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" t="n">
         <v>58898</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" t="n">
         <v>79390</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" t="n">
         <v>52558</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" t="n">
         <v>62704</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" t="n">
         <v>93232</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" t="n">
         <v>86026</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" t="n">
         <v>81201</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" t="n">
         <v>86086</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" t="n">
         <v>111645</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4" t="n">
         <v>99045</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4" t="n">
         <v>87446</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4" t="n">
         <v>84438</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4" t="n">
         <v>77652</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4" t="n">
         <v>73296</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AO4" t="n">
         <v>70277</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" t="n">
         <v>81399</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AQ4" t="n">
         <v>86172</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AR4" t="n">
         <v>82875</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="AS4" t="n">
         <v>90329</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AT4" t="n">
         <v>101862</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AU4" t="n">
         <v>105404</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AV4" t="n">
         <v>120547</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AW4" t="n">
         <v>78005</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="AX4" t="n">
         <v>133880</v>
       </c>
-      <c r="AY4" s="5">
+      <c r="AY4" t="n">
         <v>71894</v>
       </c>
-      <c r="AZ4" s="5">
+      <c r="AZ4" t="n">
         <v>96136</v>
       </c>
-      <c r="BA4" s="5">
+      <c r="BA4" t="n">
         <v>93805</v>
       </c>
-      <c r="BB4" s="5">
+      <c r="BB4" t="n">
         <v>93814</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BC4" t="n">
         <v>92722</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BD4" t="n">
         <v>86514</v>
       </c>
-      <c r="BE4" s="5">
+      <c r="BE4" t="n">
         <v>100978</v>
       </c>
-      <c r="BF4" s="5">
+      <c r="BF4" t="n">
         <v>104533</v>
       </c>
-      <c r="BG4" s="5">
+      <c r="BG4" t="n">
         <v>123485</v>
       </c>
-      <c r="BH4" s="5">
+      <c r="BH4" t="n">
         <v>137281</v>
       </c>
-      <c r="BI4" s="5">
+      <c r="BI4" t="n">
         <v>105077</v>
       </c>
-      <c r="BJ4" s="5">
+      <c r="BJ4" t="n">
         <v>160514</v>
       </c>
-      <c r="BK4" s="5">
+      <c r="BK4" t="n">
         <v>126642</v>
       </c>
-      <c r="BL4" s="5">
+      <c r="BL4" t="n">
         <v>134619</v>
       </c>
-      <c r="BM4" s="5">
+      <c r="BM4" t="n">
         <v>133226</v>
       </c>
+      <c r="BN4" t="n">
+        <v>126592</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>31082</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" t="n">
         <v>13582</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" t="n">
         <v>23110</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" t="n">
         <v>24714</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" t="n">
         <v>24985</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" t="n">
         <v>28230</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" t="n">
         <v>34242</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" t="n">
         <v>40232</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" t="n">
         <v>42383</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" t="n">
         <v>54625</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" t="n">
         <v>64585</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" t="n">
         <v>67393</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" t="n">
         <v>50242</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" t="n">
         <v>33661</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" t="n">
         <v>52590</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" t="n">
         <v>53478</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" t="n">
         <v>43278</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" t="n">
         <v>49575</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" t="n">
         <v>54977</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" t="n">
         <v>45799</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" t="n">
         <v>52831</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" t="n">
         <v>62851</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" t="n">
         <v>75418</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" t="n">
         <v>76609</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" t="n">
         <v>65757</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" t="n">
         <v>42758</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" t="n">
         <v>59040</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" t="n">
         <v>41048</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" t="n">
         <v>61740</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" t="n">
         <v>77835</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" t="n">
         <v>100831</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" t="n">
         <v>103746</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" t="n">
         <v>107299</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" t="n">
         <v>89659</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" t="n">
         <v>67111</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" t="n">
         <v>61866</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" t="n">
         <v>71258</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" t="n">
         <v>71729</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" t="n">
         <v>85419</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AO5" t="n">
         <v>86733</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" t="n">
         <v>99433</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" t="n">
         <v>100674</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" t="n">
         <v>104015</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AS5" t="n">
         <v>116331</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" t="n">
         <v>126612</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AU5" t="n">
         <v>132673</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AV5" t="n">
         <v>139740</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" t="n">
         <v>138007</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AX5" t="n">
         <v>137098</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AY5" t="n">
         <v>95764</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="AZ5" t="n">
         <v>120295</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BA5" t="n">
         <v>115176</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BB5" t="n">
         <v>120120</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BC5" t="n">
         <v>125500</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" t="n">
         <v>122698</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BE5" t="n">
         <v>132324</v>
       </c>
-      <c r="BF5" s="5">
+      <c r="BF5" t="n">
         <v>148726</v>
       </c>
-      <c r="BG5" s="5">
+      <c r="BG5" t="n">
         <v>165464</v>
       </c>
-      <c r="BH5" s="5">
+      <c r="BH5" t="n">
         <v>169291</v>
       </c>
-      <c r="BI5" s="5">
+      <c r="BI5" t="n">
         <v>174430</v>
       </c>
-      <c r="BJ5" s="5">
+      <c r="BJ5" t="n">
         <v>131081</v>
       </c>
-      <c r="BK5" s="5">
+      <c r="BK5" t="n">
         <v>106312</v>
       </c>
-      <c r="BL5" s="5">
+      <c r="BL5" t="n">
         <v>122795</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BM5" t="n">
         <v>122652</v>
       </c>
+      <c r="BN5" t="n">
+        <v>125807</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>142503</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" t="n">
         <v>12125</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" t="n">
         <v>89023</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" t="n">
         <v>134378</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" t="n">
         <v>138713</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" t="n">
         <v>148117</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" t="n">
         <v>151952</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" t="n">
         <v>118011</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" t="n">
         <v>164941</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" t="n">
         <v>136122</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" t="n">
         <v>156504</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" t="n">
         <v>144907</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" t="n">
         <v>172045</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" t="n">
         <v>91181</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" t="n">
         <v>151582</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" t="n">
         <v>133227</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" t="n">
         <v>136552</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" t="n">
         <v>147818</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" t="n">
         <v>153329</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" t="n">
         <v>89019</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" t="n">
         <v>93468</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" t="n">
         <v>133170</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" t="n">
         <v>167701</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" t="n">
         <v>186961</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" t="n">
         <v>151159</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" t="n">
         <v>125628</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" t="n">
         <v>166941</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" t="n">
         <v>99893</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" t="n">
         <v>141688</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" t="n">
         <v>202833</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" t="n">
         <v>166637</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" t="n">
         <v>161481</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" t="n">
         <v>180905</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" t="n">
         <v>155724</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" t="n">
         <v>151006</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6" t="n">
         <v>134454</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AL6" t="n">
         <v>111801</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AM6" t="n">
         <v>118053</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AN6" t="n">
         <v>143157</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AO6" t="n">
         <v>138847</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" t="n">
         <v>140626</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AQ6" t="n">
         <v>159109</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="AR6" t="n">
         <v>139740</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AS6" t="n">
         <v>145222</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AT6" t="n">
         <v>168094</v>
       </c>
-      <c r="AU6" s="5">
+      <c r="AU6" t="n">
         <v>150514</v>
       </c>
-      <c r="AV6" s="5">
+      <c r="AV6" t="n">
         <v>147648</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" t="n">
         <v>186573</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AX6" t="n">
         <v>92706</v>
       </c>
-      <c r="AY6" s="5">
+      <c r="AY6" t="n">
         <v>74771</v>
       </c>
-      <c r="AZ6" s="5">
+      <c r="AZ6" t="n">
         <v>122346</v>
       </c>
-      <c r="BA6" s="5">
+      <c r="BA6" t="n">
         <v>106043</v>
       </c>
-      <c r="BB6" s="5">
+      <c r="BB6" t="n">
         <v>116552</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BC6" t="n">
         <v>129232</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" t="n">
         <v>118807</v>
       </c>
-      <c r="BE6" s="5">
+      <c r="BE6" t="n">
         <v>130286</v>
       </c>
-      <c r="BF6" s="5">
+      <c r="BF6" t="n">
         <v>96470</v>
       </c>
-      <c r="BG6" s="5">
+      <c r="BG6" t="n">
         <v>137700</v>
       </c>
-      <c r="BH6" s="5">
+      <c r="BH6" t="n">
         <v>166635</v>
       </c>
-      <c r="BI6" s="5">
+      <c r="BI6" t="n">
         <v>177585</v>
       </c>
-      <c r="BJ6" s="5">
+      <c r="BJ6" t="n">
         <v>105967</v>
       </c>
-      <c r="BK6" s="5">
+      <c r="BK6" t="n">
         <v>80009</v>
       </c>
-      <c r="BL6" s="5">
+      <c r="BL6" t="n">
         <v>128592</v>
       </c>
-      <c r="BM6" s="5">
+      <c r="BM6" t="n">
         <v>107314</v>
       </c>
+      <c r="BN6" t="n">
+        <v>126070</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>65870</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" t="n">
         <v>14019</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" t="n">
         <v>58843</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" t="n">
         <v>57672</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" t="n">
         <v>66397</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" t="n">
         <v>75676</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" t="n">
         <v>74896</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" t="n">
         <v>78060</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" t="n">
         <v>91083</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" t="n">
         <v>101792</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" t="n">
         <v>103731</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" t="n">
         <v>73711</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" t="n">
         <v>128246</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" t="n">
         <v>85911</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" t="n">
         <v>92901</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" t="n">
         <v>88518</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" t="n">
         <v>80875</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" t="n">
         <v>71686</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" t="n">
         <v>75663</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" t="n">
         <v>70456</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" t="n">
         <v>75188</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" t="n">
         <v>85181</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" t="n">
         <v>78672</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" t="n">
         <v>65625</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" t="n">
         <v>130509</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" t="n">
         <v>55030</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" t="n">
         <v>112113</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" t="n">
         <v>49406</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" t="n">
         <v>67289</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" t="n">
         <v>100445</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" t="n">
         <v>107294</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" t="n">
         <v>54100</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" t="n">
         <v>99810</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" t="n">
         <v>119305</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" t="n">
         <v>95383</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" t="n">
         <v>134641</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AL7" t="n">
         <v>97582</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AM7" t="n">
         <v>94985</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AN7" t="n">
         <v>123453</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AO7" t="n">
         <v>86556</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" t="n">
         <v>95761</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AQ7" t="n">
         <v>102579</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AR7" t="n">
         <v>100814</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="AS7" t="n">
         <v>100914</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AT7" t="n">
         <v>100410</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="AU7" t="n">
         <v>106676</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="AV7" t="n">
         <v>95311</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7" t="n">
         <v>61087</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AX7" t="n">
         <v>143480</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="AY7" t="n">
         <v>65744</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="AZ7" t="n">
         <v>96431</v>
       </c>
-      <c r="BA7" s="5">
+      <c r="BA7" t="n">
         <v>89693</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BB7" t="n">
         <v>90190</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BC7" t="n">
         <v>99613</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" t="n">
         <v>71535</v>
       </c>
-      <c r="BE7" s="5">
+      <c r="BE7" t="n">
         <v>81699</v>
       </c>
-      <c r="BF7" s="5">
+      <c r="BF7" t="n">
         <v>96470</v>
       </c>
-      <c r="BG7" s="5">
+      <c r="BG7" t="n">
         <v>112373</v>
       </c>
-      <c r="BH7" s="5">
+      <c r="BH7" t="n">
         <v>123986</v>
       </c>
-      <c r="BI7" s="5">
+      <c r="BI7" t="n">
         <v>99380</v>
       </c>
-      <c r="BJ7" s="5">
+      <c r="BJ7" t="n">
         <v>156205</v>
       </c>
-      <c r="BK7" s="5">
+      <c r="BK7" t="n">
         <v>73982</v>
       </c>
-      <c r="BL7" s="5">
+      <c r="BL7" t="n">
         <v>120896</v>
       </c>
-      <c r="BM7" s="5">
+      <c r="BM7" t="n">
         <v>80929</v>
       </c>
+      <c r="BN7" t="n">
+        <v>90506</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>3900</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" t="n">
         <v>10160</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" t="n">
         <v>3635</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" t="n">
         <v>11095</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" t="n">
         <v>14954</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" t="n">
         <v>11014</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" t="n">
         <v>11811</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" t="n">
         <v>11329</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" t="n">
         <v>12143</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" t="n">
         <v>21604</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" t="n">
         <v>23804</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" t="n">
         <v>15484</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" t="n">
         <v>18318</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" t="n">
         <v>35503</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" t="n">
         <v>25845</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" t="n">
         <v>33463</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" t="n">
         <v>33155</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" t="n">
         <v>32968</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" t="n">
         <v>44264</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" t="n">
         <v>56006</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" t="n">
         <v>54391</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" t="n">
         <v>52859</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" t="n">
         <v>70847</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" t="n">
         <v>59845</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" t="n">
         <v>56515</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" t="n">
         <v>65814</v>
       </c>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5">
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="n">
         <v>32165</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" t="n">
         <v>78906</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" t="n">
         <v>28217</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AG8" t="n">
         <v>76965</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" t="n">
         <v>83135</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" t="n">
         <v>71704</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AJ8" t="n">
         <v>100291</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" t="n">
         <v>55796</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AL8" t="n">
         <v>66051</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AM8" t="n">
         <v>74402</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AN8" t="n">
         <v>88869</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AO8" t="n">
         <v>75842</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" t="n">
         <v>77695</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AQ8" t="n">
         <v>93680</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="AR8" t="n">
         <v>64285</v>
       </c>
-      <c r="AS8" s="5">
+      <c r="AS8" t="n">
         <v>84159</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AT8" t="n">
         <v>74073</v>
       </c>
-      <c r="AU8" s="5">
+      <c r="AU8" t="n">
         <v>72115</v>
       </c>
-      <c r="AV8" s="5">
+      <c r="AV8" t="n">
         <v>82432</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AW8" t="n">
         <v>94139</v>
       </c>
-      <c r="AX8" s="5">
+      <c r="AX8" t="n">
         <v>71447</v>
       </c>
-      <c r="AY8" s="5">
+      <c r="AY8" t="n">
         <v>60365</v>
       </c>
-      <c r="AZ8" s="5">
+      <c r="AZ8" t="n">
         <v>89064</v>
       </c>
-      <c r="BA8" s="5">
+      <c r="BA8" t="n">
         <v>62167</v>
       </c>
-      <c r="BB8" s="5">
+      <c r="BB8" t="n">
         <v>72573</v>
       </c>
-      <c r="BC8" s="5">
+      <c r="BC8" t="n">
         <v>71007</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BD8" t="n">
         <v>74117</v>
       </c>
-      <c r="BE8" s="5">
+      <c r="BE8" t="n">
         <v>86697</v>
       </c>
-      <c r="BF8" s="5">
+      <c r="BF8" t="n">
         <v>88321</v>
       </c>
-      <c r="BG8" s="5">
+      <c r="BG8" t="n">
         <v>68280</v>
       </c>
-      <c r="BH8" s="5">
+      <c r="BH8" t="n">
         <v>78856</v>
       </c>
-      <c r="BI8" s="5">
+      <c r="BI8" t="n">
         <v>93766</v>
       </c>
-      <c r="BJ8" s="5">
+      <c r="BJ8" t="n">
         <v>63238</v>
       </c>
-      <c r="BK8" s="5">
+      <c r="BK8" t="n">
         <v>30688</v>
       </c>
-      <c r="BL8" s="5">
+      <c r="BL8" t="n">
         <v>78828</v>
       </c>
-      <c r="BM8" s="5">
+      <c r="BM8" t="n">
         <v>58459</v>
       </c>
+      <c r="BN8" t="n">
+        <v>61662</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>58720</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" t="n">
         <v>7148</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" t="n">
         <v>40337</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" t="n">
         <v>57098</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" t="n">
         <v>51915</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" t="n">
         <v>46998</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" t="n">
         <v>47517</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" t="n">
         <v>56128</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" t="n">
         <v>79120</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" t="n">
         <v>97950</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" t="n">
         <v>101812</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" t="n">
         <v>105485</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" t="n">
         <v>94474</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" t="n">
         <v>61067</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" t="n">
         <v>67187</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" t="n">
         <v>55018</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" t="n">
         <v>53849</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" t="n">
         <v>59946</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" t="n">
         <v>57196</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" t="n">
         <v>40560</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" t="n">
         <v>54561</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" t="n">
         <v>62593</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" t="n">
         <v>69170</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" t="n">
         <v>94387</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" t="n">
         <v>70228</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" t="n">
         <v>41994</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" t="n">
         <v>54534</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" t="n">
         <v>29125</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" t="n">
         <v>41748</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" t="n">
         <v>51274</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" t="n">
         <v>61279</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AG9" t="n">
         <v>50400</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH9" t="n">
         <v>53960</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" t="n">
         <v>63759</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AJ9" t="n">
         <v>53923</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AK9" t="n">
         <v>44326</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AL9" t="n">
         <v>39192</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AM9" t="n">
         <v>39162</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AN9" t="n">
         <v>47419</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="AO9" t="n">
         <v>52264</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AP9" t="n">
         <v>55600</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AQ9" t="n">
         <v>59007</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="AR9" t="n">
         <v>62967</v>
       </c>
-      <c r="AS9" s="5">
+      <c r="AS9" t="n">
         <v>66523</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AT9" t="n">
         <v>73766</v>
       </c>
-      <c r="AU9" s="5">
+      <c r="AU9" t="n">
         <v>78698</v>
       </c>
-      <c r="AV9" s="5">
+      <c r="AV9" t="n">
         <v>75012</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AW9" t="n">
         <v>65578</v>
       </c>
-      <c r="AX9" s="5">
+      <c r="AX9" t="n">
         <v>59103</v>
       </c>
-      <c r="AY9" s="5">
+      <c r="AY9" t="n">
         <v>44731</v>
       </c>
-      <c r="AZ9" s="5">
+      <c r="AZ9" t="n">
         <v>54055</v>
       </c>
-      <c r="BA9" s="5">
+      <c r="BA9" t="n">
         <v>47054</v>
       </c>
-      <c r="BB9" s="5">
+      <c r="BB9" t="n">
         <v>47066</v>
       </c>
-      <c r="BC9" s="5">
+      <c r="BC9" t="n">
         <v>47729</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BD9" t="n">
         <v>52944</v>
       </c>
-      <c r="BE9" s="5">
+      <c r="BE9" t="n">
         <v>56166</v>
       </c>
-      <c r="BF9" s="5">
+      <c r="BF9" t="n">
         <v>62900</v>
       </c>
-      <c r="BG9" s="5">
+      <c r="BG9" t="n">
         <v>72675</v>
       </c>
-      <c r="BH9" s="5">
+      <c r="BH9" t="n">
         <v>78386</v>
       </c>
-      <c r="BI9" s="5">
+      <c r="BI9" t="n">
         <v>83425</v>
       </c>
-      <c r="BJ9" s="5">
+      <c r="BJ9" t="n">
         <v>48557</v>
       </c>
-      <c r="BK9" s="5">
+      <c r="BK9" t="n">
         <v>43301</v>
       </c>
-      <c r="BL9" s="5">
+      <c r="BL9" t="n">
         <v>52732</v>
       </c>
-      <c r="BM9" s="5">
+      <c r="BM9" t="n">
         <v>56748</v>
       </c>
+      <c r="BN9" t="n">
+        <v>57693</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>21969</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" t="n">
         <v>4998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" t="n">
         <v>17718</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" t="n">
         <v>19013</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" t="n">
         <v>19461</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" t="n">
         <v>16579</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" t="n">
         <v>17924</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" t="n">
         <v>21278</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" t="n">
         <v>27098</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" t="n">
         <v>32077</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" t="n">
         <v>44694</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" t="n">
         <v>54509</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" t="n">
         <v>28341</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" t="n">
         <v>18367</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" t="n">
         <v>33489</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" t="n">
         <v>25440</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" t="n">
         <v>25135</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" t="n">
         <v>25862</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" t="n">
         <v>27281</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" t="n">
         <v>36021</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" t="n">
         <v>45714</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" t="n">
         <v>50326</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" t="n">
         <v>69917</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" t="n">
         <v>70419</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" t="n">
         <v>26609</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" t="n">
         <v>37398</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" t="n">
         <v>31960</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" t="n">
         <v>10361</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" t="n">
         <v>43914</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" t="n">
         <v>50380</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" t="n">
         <v>54009</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AG10" t="n">
         <v>49853</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AH10" t="n">
         <v>47797</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AI10" t="n">
         <v>46008</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AJ10" t="n">
         <v>58243</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" t="n">
         <v>67383</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AL10" t="n">
         <v>42991</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AM10" t="n">
         <v>43480</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AN10" t="n">
         <v>67542</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="AO10" t="n">
         <v>51729</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AP10" t="n">
         <v>54834</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AQ10" t="n">
         <v>53282</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AR10" t="n">
         <v>51689</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="AS10" t="n">
         <v>57019</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AT10" t="n">
         <v>64181</v>
       </c>
-      <c r="AU10" s="5">
+      <c r="AU10" t="n">
         <v>73017</v>
       </c>
-      <c r="AV10" s="5">
+      <c r="AV10" t="n">
         <v>78270</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AW10" t="n">
         <v>95953</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="AX10" t="n">
         <v>35214</v>
       </c>
-      <c r="AY10" s="5">
+      <c r="AY10" t="n">
         <v>27420</v>
       </c>
-      <c r="AZ10" s="5">
+      <c r="AZ10" t="n">
         <v>67172</v>
       </c>
-      <c r="BA10" s="5">
+      <c r="BA10" t="n">
         <v>51708</v>
       </c>
-      <c r="BB10" s="5">
+      <c r="BB10" t="n">
         <v>38038</v>
       </c>
-      <c r="BC10" s="5">
+      <c r="BC10" t="n">
         <v>38271</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BD10" t="n">
         <v>36174</v>
       </c>
-      <c r="BE10" s="5">
+      <c r="BE10" t="n">
         <v>33216</v>
       </c>
-      <c r="BF10" s="5">
+      <c r="BF10" t="n">
         <v>39580</v>
       </c>
-      <c r="BG10" s="5">
+      <c r="BG10" t="n">
         <v>58865</v>
       </c>
-      <c r="BH10" s="5">
+      <c r="BH10" t="n">
         <v>52508</v>
       </c>
-      <c r="BI10" s="5">
+      <c r="BI10" t="n">
         <v>56787</v>
       </c>
-      <c r="BJ10" s="5">
+      <c r="BJ10" t="n">
         <v>37463</v>
       </c>
-      <c r="BK10" s="5">
+      <c r="BK10" t="n">
         <v>35635</v>
       </c>
-      <c r="BL10" s="5">
+      <c r="BL10" t="n">
         <v>49571</v>
       </c>
-      <c r="BM10" s="5">
+      <c r="BM10" t="n">
         <v>52380</v>
       </c>
+      <c r="BN10" t="n">
+        <v>58411</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Wuling</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>11616</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" t="n">
         <v>2540</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" t="n">
         <v>10924</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" t="n">
         <v>18347</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" t="n">
         <v>20932</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" t="n">
         <v>20299</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" t="n">
         <v>26792</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" t="n">
         <v>40780</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" t="n">
         <v>48854</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" t="n">
         <v>55134</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" t="n">
         <v>68903</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" t="n">
         <v>81625</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" t="n">
         <v>55086</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" t="n">
         <v>33322</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" t="n">
         <v>66480</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" t="n">
         <v>57068</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" t="n">
         <v>48057</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" t="n">
         <v>44439</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" t="n">
         <v>50594</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" t="n">
         <v>73529</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" t="n">
         <v>74748</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" t="n">
         <v>93609</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" t="n">
         <v>101220</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" t="n">
         <v>119889</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" t="n">
         <v>54369</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" t="n">
         <v>37958</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" t="n">
         <v>71261</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" t="n">
         <v>35147</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" t="n">
         <v>59268</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" t="n">
         <v>70755</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" t="n">
         <v>84802</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AG11" t="n">
         <v>83041</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AH11" t="n">
         <v>88985</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" t="n">
         <v>90767</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AJ11" t="n">
         <v>113212</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" t="n">
         <v>119005</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AL11" t="n">
         <v>9906</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AM11" t="n">
         <v>23618</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AN11" t="n">
         <v>33821</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AO11" t="n">
         <v>37439</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AP11" t="n">
         <v>39020</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AQ11" t="n">
         <v>41655</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AR11" t="n">
         <v>11467</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AS11" t="n">
         <v>8515</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AT11" t="n">
         <v>12332</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AU11" t="n">
         <v>19435</v>
       </c>
-      <c r="AV11" s="5">
+      <c r="AV11" t="n">
         <v>33674</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AW11" t="n">
         <v>62603</v>
       </c>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5">
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="n">
         <v>17157</v>
       </c>
-      <c r="AZ11" s="5">
+      <c r="AZ11" t="n">
         <v>21839</v>
       </c>
-      <c r="BA11" s="5">
+      <c r="BA11" t="n">
         <v>20365</v>
       </c>
-      <c r="BB11" s="5">
+      <c r="BB11" t="n">
         <v>15094</v>
       </c>
-      <c r="BC11" s="5">
+      <c r="BC11" t="n">
         <v>15564</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BD11" t="n">
         <v>10630</v>
       </c>
-      <c r="BE11" s="5">
+      <c r="BE11" t="n">
         <v>16171</v>
       </c>
-      <c r="BF11" s="5">
+      <c r="BF11" t="n">
         <v>28133</v>
       </c>
-      <c r="BG11" s="5">
+      <c r="BG11" t="n">
         <v>38044</v>
       </c>
-      <c r="BH11" s="5">
+      <c r="BH11" t="n">
         <v>48325</v>
       </c>
-      <c r="BI11" s="5">
+      <c r="BI11" t="n">
         <v>65887</v>
       </c>
-      <c r="BJ11" s="5">
+      <c r="BJ11" t="n">
         <v>30983</v>
       </c>
-      <c r="BK11" s="5">
+      <c r="BK11" t="n">
         <v>45671</v>
       </c>
-      <c r="BL11" s="5">
+      <c r="BL11" t="n">
         <v>54507</v>
       </c>
-      <c r="BM11" s="5">
+      <c r="BM11" t="n">
         <v>46129</v>
       </c>
+      <c r="BN11" t="n">
+        <v>37896</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>12585</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" t="n">
         <v>3748</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" t="n">
         <v>5199</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" t="n">
         <v>5760</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" t="n">
         <v>5198</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" t="n">
         <v>4877</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" t="n">
         <v>8569</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" t="n">
         <v>9703</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" t="n">
         <v>10466</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" t="n">
         <v>16108</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" t="n">
         <v>20586</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" t="n">
         <v>27904</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" t="n">
         <v>14728</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" t="n">
         <v>7184</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" t="n">
         <v>13596</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" t="n">
         <v>10399</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" t="n">
         <v>10257</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" t="n">
         <v>11326</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" t="n">
         <v>15745</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" t="n">
         <v>10282</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" t="n">
         <v>10032</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" t="n">
         <v>11136</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" t="n">
         <v>19256</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" t="n">
         <v>20136</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" t="n">
         <v>10050</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" t="n">
         <v>6700</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" t="n">
         <v>10006</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" t="n">
         <v>7735</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" t="n">
         <v>11520</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" t="n">
         <v>15036</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AF12" t="n">
         <v>16690</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AG12" t="n">
         <v>18979</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AH12" t="n">
         <v>19018</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" t="n">
         <v>25174</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AJ12" t="n">
         <v>17117</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AK12" t="n">
         <v>22042</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AL12" t="n">
         <v>16009</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AM12" t="n">
         <v>16432</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AN12" t="n">
         <v>19507</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AO12" t="n">
         <v>19005</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AP12" t="n">
         <v>19821</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AQ12" t="n">
         <v>21607</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AR12" t="n">
         <v>21512</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AS12" t="n">
         <v>28007</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AT12" t="n">
         <v>32129</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AU12" t="n">
         <v>38053</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AV12" t="n">
         <v>41027</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AW12" t="n">
         <v>42058</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AX12" t="n">
         <v>42956</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AY12" t="n">
         <v>29017</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="AZ12" t="n">
         <v>35503</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BA12" t="n">
         <v>37248</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BB12" t="n">
         <v>36743</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BC12" t="n">
         <v>42088</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BD12" t="n">
         <v>41106</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BE12" t="n">
         <v>51785</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BF12" t="n">
         <v>60226</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BG12" t="n">
         <v>62655</v>
       </c>
-      <c r="BH12" s="5">
+      <c r="BH12" t="n">
         <v>63040</v>
       </c>
-      <c r="BI12" s="5">
+      <c r="BI12" t="n">
         <v>66020</v>
       </c>
-      <c r="BJ12" s="5">
+      <c r="BJ12" t="n">
         <v>58162</v>
       </c>
-      <c r="BK12" s="5">
+      <c r="BK12" t="n">
         <v>42257</v>
       </c>
-      <c r="BL12" s="5">
+      <c r="BL12" t="n">
         <v>54020</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BM12" t="n">
         <v>44060</v>
       </c>
+      <c r="BN12" t="n">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>50000</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" t="n">
         <v>7479</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" t="n">
         <v>41184</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" t="n">
         <v>55884</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" t="n">
         <v>55198</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" t="n">
         <v>59198</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" t="n">
         <v>61205</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" t="n">
         <v>63587</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" t="n">
         <v>56329</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" t="n">
         <v>47170</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" t="n">
         <v>60869</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" t="n">
         <v>53878</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" t="n">
         <v>72930</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" t="n">
         <v>40766</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" t="n">
         <v>63354</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" t="n">
         <v>59176</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" t="n">
         <v>61064</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" t="n">
         <v>57339</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" t="n">
         <v>41758</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" t="n">
         <v>56391</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" t="n">
         <v>51557</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" t="n">
         <v>52709</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" t="n">
         <v>45514</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" t="n">
         <v>49442</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" t="n">
         <v>79087</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" t="n">
         <v>43558</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13" t="n">
         <v>35723</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AC13" t="n">
         <v>31743</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" t="n">
         <v>62567</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AE13" t="n">
         <v>62149</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AF13" t="n">
         <v>50705</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AG13" t="n">
         <v>59173</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AH13" t="n">
         <v>70358</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AI13" t="n">
         <v>51341</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AJ13" t="n">
         <v>58527</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AK13" t="n">
         <v>60119</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AL13" t="n">
         <v>58267</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AM13" t="n">
         <v>52871</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AN13" t="n">
         <v>61628</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AO13" t="n">
         <v>49656</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AP13" t="n">
         <v>55443</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AQ13" t="n">
         <v>56236</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AR13" t="n">
         <v>60985</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AS13" t="n">
         <v>61362</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AT13" t="n">
         <v>62607</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AU13" t="n">
         <v>57396</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AV13" t="n">
         <v>69383</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AW13" t="n">
         <v>64166</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AX13" t="n">
         <v>63121</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="AY13" t="n">
         <v>41604</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="AZ13" t="n">
         <v>56386</v>
       </c>
-      <c r="BA13" s="5">
+      <c r="BA13" t="n">
         <v>48565</v>
       </c>
-      <c r="BB13" s="5">
+      <c r="BB13" t="n">
         <v>49708</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BC13" t="n">
         <v>56621</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BD13" t="n">
         <v>50575</v>
       </c>
-      <c r="BE13" s="5">
+      <c r="BE13" t="n">
         <v>33123</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BF13" t="n">
         <v>43959</v>
       </c>
-      <c r="BG13" s="5">
+      <c r="BG13" t="n">
         <v>51679</v>
       </c>
-      <c r="BH13" s="5">
+      <c r="BH13" t="n">
         <v>56275</v>
       </c>
-      <c r="BI13" s="5">
+      <c r="BI13" t="n">
         <v>62786</v>
       </c>
-      <c r="BJ13" s="5">
+      <c r="BJ13" t="n">
         <v>43507</v>
       </c>
-      <c r="BK13" s="5">
+      <c r="BK13" t="n">
         <v>35574</v>
       </c>
-      <c r="BL13" s="5">
+      <c r="BL13" t="n">
         <v>49136</v>
       </c>
-      <c r="BM13" s="5">
+      <c r="BM13" t="n">
         <v>42424</v>
       </c>
+      <c r="BN13" t="n">
+        <v>46196</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Leapmotor</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="n">
         <v>7807</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" t="n">
         <v>8085</v>
       </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5">
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="n">
         <v>10059</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14" t="n">
         <v>9087</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD14" t="n">
         <v>10069</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14" t="n">
         <v>11259</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14" t="n">
         <v>12044</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG14" t="n">
         <v>12525</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH14" t="n">
         <v>11039</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" t="n">
         <v>7026</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AJ14" t="n">
         <v>8047</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AK14" t="n">
         <v>8493</v>
       </c>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5">
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="n">
         <v>6172</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AO14" t="n">
         <v>8726</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AP14" t="n">
         <v>12058</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AQ14" t="n">
         <v>13209</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AR14" t="n">
         <v>14335</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AS14" t="n">
         <v>14190</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AT14" t="n">
         <v>15800</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AU14" t="n">
         <v>18202</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AV14" t="n">
         <v>18508</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AW14" t="n">
         <v>18618</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AX14" t="n">
         <v>12277</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="AY14" t="n">
         <v>6566</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="AZ14" t="n">
         <v>14567</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BA14" t="n">
         <v>15005</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BB14" t="n">
         <v>18165</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BC14" t="n">
         <v>20116</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BD14" t="n">
         <v>22093</v>
       </c>
-      <c r="BE14" s="5">
+      <c r="BE14" t="n">
         <v>28005</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BF14" t="n">
         <v>33767</v>
       </c>
-      <c r="BG14" s="5">
+      <c r="BG14" t="n">
         <v>38177</v>
       </c>
-      <c r="BH14" s="5">
+      <c r="BH14" t="n">
         <v>40169</v>
       </c>
-      <c r="BI14" s="5">
+      <c r="BI14" t="n">
         <v>42517</v>
       </c>
-      <c r="BJ14" s="5">
+      <c r="BJ14" t="n">
         <v>25170</v>
       </c>
-      <c r="BK14" s="5">
+      <c r="BK14" t="n">
         <v>25287</v>
       </c>
-      <c r="BL14" s="5">
+      <c r="BL14" t="n">
         <v>37095</v>
       </c>
-      <c r="BM14" s="5">
+      <c r="BM14" t="n">
         <v>41039</v>
       </c>
+      <c r="BN14" t="n">
+        <v>45067</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5">
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>GALAXY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="n">
         <v>9673</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AR15" t="n">
         <v>10058</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="AS15" t="n">
         <v>11117</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AT15" t="n">
         <v>13080</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AU15" t="n">
         <v>13711</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AV15" t="n">
         <v>13770</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AW15" t="n">
         <v>12088</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AX15" t="n">
         <v>19223</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="AY15" t="n">
         <v>9120</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="AZ15" t="n">
         <v>10185</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BA15" t="n">
         <v>12725</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BB15" t="n">
         <v>14193</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BC15" t="n">
         <v>15975</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BD15" t="n">
         <v>16704</v>
       </c>
-      <c r="BE15" s="5">
+      <c r="BE15" t="n">
         <v>26510</v>
       </c>
-      <c r="BF15" s="5">
+      <c r="BF15" t="n">
         <v>29047</v>
       </c>
-      <c r="BG15" s="5">
+      <c r="BG15" t="n">
         <v>31242</v>
       </c>
-      <c r="BH15" s="5">
+      <c r="BH15" t="n">
         <v>34889</v>
       </c>
-      <c r="BI15" s="5">
+      <c r="BI15" t="n">
         <v>41392</v>
       </c>
-      <c r="BJ15" s="5">
+      <c r="BJ15" t="n">
         <v>48350</v>
       </c>
-      <c r="BK15" s="5">
+      <c r="BK15" t="n">
         <v>33931</v>
       </c>
-      <c r="BL15" s="5">
+      <c r="BL15" t="n">
         <v>43171</v>
       </c>
-      <c r="BM15" s="5">
+      <c r="BM15" t="n">
         <v>40926</v>
       </c>
+      <c r="BN15" t="n">
+        <v>44641</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>128074</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" t="n">
         <v>7118</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" t="n">
         <v>41502</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" t="n">
         <v>143626</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" t="n">
         <v>132103</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" t="n">
         <v>157431</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" t="n">
         <v>150914</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" t="n">
         <v>145796</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" t="n">
         <v>181419</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" t="n">
         <v>172496</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" t="n">
         <v>180387</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" t="n">
         <v>192823</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" t="n">
         <v>148328</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" t="n">
         <v>87163</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" t="n">
         <v>145886</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" t="n">
         <v>151469</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" t="n">
         <v>113170</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" t="n">
         <v>106486</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" t="n">
         <v>101401</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" t="n">
         <v>84106</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" t="n">
         <v>136641</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" t="n">
         <v>140402</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" t="n">
         <v>161132</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" t="n">
         <v>151766</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" t="n">
         <v>154770</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" t="n">
         <v>115804</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" t="n">
         <v>147239</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" t="n">
         <v>40208</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AD16" t="n">
         <v>82150</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" t="n">
         <v>148002</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" t="n">
         <v>153650</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AG16" t="n">
         <v>120490</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AH16" t="n">
         <v>112176</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AI16" t="n">
         <v>112878</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" t="n">
         <v>83212</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AK16" t="n">
         <v>119309</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AL16" t="n">
         <v>68656</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AM16" t="n">
         <v>72540</v>
       </c>
-      <c r="AN16" s="5">
+      <c r="AN16" t="n">
         <v>116674</v>
       </c>
-      <c r="AO16" s="5">
+      <c r="AO16" t="n">
         <v>54056</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AP16" t="n">
         <v>99244</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="AQ16" t="n">
         <v>102483</v>
       </c>
-      <c r="AR16" s="5">
+      <c r="AR16" t="n">
         <v>93898</v>
       </c>
-      <c r="AS16" s="5">
+      <c r="AS16" t="n">
         <v>98652</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="AT16" t="n">
         <v>132048</v>
       </c>
-      <c r="AU16" s="5">
+      <c r="AU16" t="n">
         <v>121444</v>
       </c>
-      <c r="AV16" s="5">
+      <c r="AV16" t="n">
         <v>134117</v>
       </c>
-      <c r="AW16" s="5">
+      <c r="AW16" t="n">
         <v>134374</v>
       </c>
-      <c r="AX16" s="5">
+      <c r="AX16" t="n">
         <v>101861</v>
       </c>
-      <c r="AY16" s="5">
+      <c r="AY16" t="n">
         <v>55235</v>
       </c>
-      <c r="AZ16" s="5">
+      <c r="AZ16" t="n">
         <v>96068</v>
       </c>
-      <c r="BA16" s="5">
+      <c r="BA16" t="n">
         <v>53959</v>
       </c>
-      <c r="BB16" s="5">
+      <c r="BB16" t="n">
         <v>63185</v>
       </c>
-      <c r="BC16" s="5">
+      <c r="BC16" t="n">
         <v>69398</v>
       </c>
-      <c r="BD16" s="5">
+      <c r="BD16" t="n">
         <v>47499</v>
       </c>
-      <c r="BE16" s="5">
+      <c r="BE16" t="n">
         <v>56642</v>
       </c>
-      <c r="BF16" s="5">
+      <c r="BF16" t="n">
         <v>66446</v>
       </c>
-      <c r="BG16" s="5">
+      <c r="BG16" t="n">
         <v>84670</v>
       </c>
-      <c r="BH16" s="5">
+      <c r="BH16" t="n">
         <v>72320</v>
       </c>
-      <c r="BI16" s="5">
+      <c r="BI16" t="n">
         <v>125491</v>
       </c>
-      <c r="BJ16" s="5">
+      <c r="BJ16" t="n">
         <v>35094</v>
       </c>
-      <c r="BK16" s="5">
+      <c r="BK16" t="n">
         <v>46642</v>
       </c>
-      <c r="BL16" s="5">
+      <c r="BL16" t="n">
         <v>84771</v>
       </c>
-      <c r="BM16" s="5">
+      <c r="BM16" t="n">
         <v>40492</v>
       </c>
+      <c r="BN16" t="n">
+        <v>37573</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Benz</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>48899</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" t="n">
         <v>12175</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" t="n">
         <v>53053</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" t="n">
         <v>52806</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" t="n">
         <v>58431</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" t="n">
         <v>58310</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" t="n">
         <v>59544</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" t="n">
         <v>57473</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" t="n">
         <v>63008</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" t="n">
         <v>53964</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" t="n">
         <v>62451</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" t="n">
         <v>60624</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" t="n">
         <v>68412</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" t="n">
         <v>43152</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" t="n">
         <v>63272</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" t="n">
         <v>62884</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" t="n">
         <v>53298</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" t="n">
         <v>43832</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" t="n">
         <v>33638</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" t="n">
         <v>31735</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" t="n">
         <v>31399</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" t="n">
         <v>56580</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" t="n">
         <v>53128</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" t="n">
         <v>56874</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" t="n">
         <v>57615</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" t="n">
         <v>42421</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" t="n">
         <v>50160</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" t="n">
         <v>29460</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AD17" t="n">
         <v>42771</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" t="n">
         <v>60036</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" t="n">
         <v>66162</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AG17" t="n">
         <v>56131</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AH17" t="n">
         <v>69991</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AI17" t="n">
         <v>51462</v>
       </c>
-      <c r="AJ17" s="5">
+      <c r="AJ17" t="n">
         <v>51735</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AK17" t="n">
         <v>46796</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AL17" t="n">
         <v>44882</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AM17" t="n">
         <v>54212</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AN17" t="n">
         <v>56715</v>
       </c>
-      <c r="AO17" s="5">
+      <c r="AO17" t="n">
         <v>46381</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AP17" t="n">
         <v>53403</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="AQ17" t="n">
         <v>60976</v>
       </c>
-      <c r="AR17" s="5">
+      <c r="AR17" t="n">
         <v>54528</v>
       </c>
-      <c r="AS17" s="5">
+      <c r="AS17" t="n">
         <v>58370</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AT17" t="n">
         <v>58590</v>
       </c>
-      <c r="AU17" s="5">
+      <c r="AU17" t="n">
         <v>41894</v>
       </c>
-      <c r="AV17" s="5">
+      <c r="AV17" t="n">
         <v>37822</v>
       </c>
-      <c r="AW17" s="5">
+      <c r="AW17" t="n">
         <v>55620</v>
       </c>
-      <c r="AX17" s="5">
+      <c r="AX17" t="n">
         <v>43571</v>
       </c>
-      <c r="AY17" s="5">
+      <c r="AY17" t="n">
         <v>38224</v>
       </c>
-      <c r="AZ17" s="5">
+      <c r="AZ17" t="n">
         <v>63645</v>
       </c>
-      <c r="BA17" s="5">
+      <c r="BA17" t="n">
         <v>43024</v>
       </c>
-      <c r="BB17" s="5">
+      <c r="BB17" t="n">
         <v>53363</v>
       </c>
-      <c r="BC17" s="5">
+      <c r="BC17" t="n">
         <v>53556</v>
       </c>
-      <c r="BD17" s="5">
+      <c r="BD17" t="n">
         <v>47935</v>
       </c>
-      <c r="BE17" s="5">
+      <c r="BE17" t="n">
         <v>48715</v>
       </c>
-      <c r="BF17" s="5">
+      <c r="BF17" t="n">
         <v>51731</v>
       </c>
-      <c r="BG17" s="5">
+      <c r="BG17" t="n">
         <v>41909</v>
       </c>
-      <c r="BH17" s="5">
+      <c r="BH17" t="n">
         <v>49082</v>
       </c>
-      <c r="BI17" s="5">
+      <c r="BI17" t="n">
         <v>54559</v>
       </c>
-      <c r="BJ17" s="5">
+      <c r="BJ17" t="n">
         <v>40957</v>
       </c>
-      <c r="BK17" s="5">
+      <c r="BK17" t="n">
         <v>35970</v>
       </c>
-      <c r="BL17" s="5">
+      <c r="BL17" t="n">
         <v>53018</v>
       </c>
-      <c r="BM17" s="5">
+      <c r="BM17" t="n">
         <v>37058</v>
       </c>
+      <c r="BN17" t="n">
+        <v>39566</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>XPENG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
         <v>4650</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" t="n">
         <v>6420</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" t="n">
         <v>6015</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" t="n">
         <v>2223</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" t="n">
         <v>5102</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" t="n">
         <v>5147</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" t="n">
         <v>5686</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" t="n">
         <v>6565</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" t="n">
         <v>8040</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" t="n">
         <v>7214</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" t="n">
         <v>10412</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" t="n">
         <v>10138</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" t="n">
         <v>15613</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" t="n">
         <v>16000</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" t="n">
         <v>12922</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" t="n">
         <v>6225</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" t="n">
         <v>15414</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" t="n">
         <v>9002</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" t="n">
         <v>10125</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" t="n">
         <v>15295</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" t="n">
         <v>11524</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" t="n">
         <v>9578</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AH18" t="n">
         <v>8468</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5">
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="n">
         <v>5811</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" t="n">
         <v>11292</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AL18" t="n">
         <v>5218</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AM18" t="n">
         <v>6010</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AN18" t="n">
         <v>7002</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="AO18" t="n">
         <v>7079</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AP18" t="n">
         <v>7506</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="AQ18" t="n">
         <v>8620</v>
       </c>
-      <c r="AR18" s="5">
+      <c r="AR18" t="n">
         <v>11008</v>
       </c>
-      <c r="AS18" s="5">
+      <c r="AS18" t="n">
         <v>13988</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="AT18" t="n">
         <v>16076</v>
       </c>
-      <c r="AU18" s="5">
+      <c r="AU18" t="n">
         <v>20612</v>
       </c>
-      <c r="AV18" s="5">
+      <c r="AV18" t="n">
         <v>20935</v>
       </c>
-      <c r="AW18" s="5">
+      <c r="AW18" t="n">
         <v>20107</v>
       </c>
-      <c r="AX18" s="5">
+      <c r="AX18" t="n">
         <v>8648</v>
       </c>
-      <c r="AY18" s="5">
+      <c r="AY18" t="n">
         <v>5253</v>
       </c>
-      <c r="AZ18" s="5">
+      <c r="AZ18" t="n">
         <v>9937</v>
       </c>
-      <c r="BA18" s="5">
+      <c r="BA18" t="n">
         <v>10405</v>
       </c>
-      <c r="BB18" s="5">
+      <c r="BB18" t="n">
         <v>11724</v>
       </c>
-      <c r="BC18" s="5">
+      <c r="BC18" t="n">
         <v>12508</v>
       </c>
-      <c r="BD18" s="5">
+      <c r="BD18" t="n">
         <v>13003</v>
       </c>
-      <c r="BE18" s="5">
+      <c r="BE18" t="n">
         <v>14036</v>
       </c>
-      <c r="BF18" s="5">
+      <c r="BF18" t="n">
         <v>21352</v>
       </c>
-      <c r="BG18" s="5">
+      <c r="BG18" t="n">
         <v>23917</v>
       </c>
-      <c r="BH18" s="5">
+      <c r="BH18" t="n">
         <v>30895</v>
       </c>
-      <c r="BI18" s="5">
+      <c r="BI18" t="n">
         <v>36695</v>
       </c>
-      <c r="BJ18" s="5">
+      <c r="BJ18" t="n">
         <v>30350</v>
       </c>
-      <c r="BK18" s="5">
+      <c r="BK18" t="n">
         <v>30453</v>
       </c>
-      <c r="BL18" s="5">
+      <c r="BL18" t="n">
         <v>33205</v>
       </c>
-      <c r="BM18" s="5">
+      <c r="BM18" t="n">
         <v>35045</v>
       </c>
+      <c r="BN18" t="n">
+        <v>33525</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Buick</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>68876</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" t="n">
         <v>4078</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" t="n">
         <v>26717</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" t="n">
         <v>69528</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" t="n">
         <v>81585</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" t="n">
         <v>75701</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" t="n">
         <v>76927</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" t="n">
         <v>86249</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" t="n">
         <v>98722</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" t="n">
         <v>99057</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" t="n">
         <v>110298</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" t="n">
         <v>128591</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" t="n">
         <v>86910</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" t="n">
         <v>52460</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" t="n">
         <v>83036</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" t="n">
         <v>49271</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" t="n">
         <v>46767</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" t="n">
         <v>49200</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" t="n">
         <v>58316</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" t="n">
         <v>64358</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" t="n">
         <v>84257</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" t="n">
         <v>82103</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" t="n">
         <v>81137</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" t="n">
         <v>90821</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" t="n">
         <v>61967</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" t="n">
         <v>42048</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" t="n">
         <v>57117</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AC19" t="n">
         <v>16490</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AD19" t="n">
         <v>50990</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" t="n">
         <v>75866</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AF19" t="n">
         <v>70106</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AG19" t="n">
         <v>67497</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AH19" t="n">
         <v>64478</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AI19" t="n">
         <v>71302</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AJ19" t="n">
         <v>52721</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AK19" t="n">
         <v>47346</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AL19" t="n">
         <v>33447</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AM19" t="n">
         <v>41437</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AN19" t="n">
         <v>41226</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AO19" t="n">
         <v>44500</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AP19" t="n">
         <v>51777</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AQ19" t="n">
         <v>52472</v>
       </c>
-      <c r="AR19" s="5">
+      <c r="AR19" t="n">
         <v>45839</v>
       </c>
-      <c r="AS19" s="5">
+      <c r="AS19" t="n">
         <v>52420</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="AT19" t="n">
         <v>65507</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="AU19" t="n">
         <v>55356</v>
       </c>
-      <c r="AV19" s="5">
+      <c r="AV19" t="n">
         <v>55035</v>
       </c>
-      <c r="AW19" s="5">
+      <c r="AW19" t="n">
         <v>67388</v>
       </c>
-      <c r="AX19" s="5">
+      <c r="AX19" t="n">
         <v>27012</v>
       </c>
-      <c r="AY19" s="5">
+      <c r="AY19" t="n">
         <v>8539</v>
       </c>
-      <c r="AZ19" s="5">
+      <c r="AZ19" t="n">
         <v>41229</v>
       </c>
-      <c r="BA19" s="5">
+      <c r="BA19" t="n">
         <v>32294</v>
       </c>
-      <c r="BB19" s="5">
+      <c r="BB19" t="n">
         <v>28856</v>
       </c>
-      <c r="BC19" s="5">
+      <c r="BC19" t="n">
         <v>22159</v>
       </c>
-      <c r="BD19" s="5">
+      <c r="BD19" t="n">
         <v>12492</v>
       </c>
-      <c r="BE19" s="5">
+      <c r="BE19" t="n">
         <v>13671</v>
       </c>
-      <c r="BF19" s="5">
+      <c r="BF19" t="n">
         <v>17122</v>
       </c>
-      <c r="BG19" s="5">
+      <c r="BG19" t="n">
         <v>25758</v>
       </c>
-      <c r="BH19" s="5">
+      <c r="BH19" t="n">
         <v>42351</v>
       </c>
-      <c r="BI19" s="5">
+      <c r="BI19" t="n">
         <v>51395</v>
       </c>
-      <c r="BJ19" s="5">
+      <c r="BJ19" t="n">
         <v>24819</v>
       </c>
-      <c r="BK19" s="5">
+      <c r="BK19" t="n">
         <v>23607</v>
       </c>
-      <c r="BL19" s="5">
+      <c r="BL19" t="n">
         <v>36605</v>
       </c>
-      <c r="BM19" s="5">
+      <c r="BM19" t="n">
         <v>34535</v>
       </c>
+      <c r="BN19" t="n">
+        <v>32390</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>53888</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" t="n">
         <v>8105</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" t="n">
         <v>34753</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" t="n">
         <v>55626</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" t="n">
         <v>62083</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" t="n">
         <v>56588</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" t="n">
         <v>65008</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" t="n">
         <v>66396</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" t="n">
         <v>72298</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" t="n">
         <v>63998</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" t="n">
         <v>66756</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" t="n">
         <v>50301</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" t="n">
         <v>80008</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" t="n">
         <v>43588</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" t="n">
         <v>67188</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" t="n">
         <v>68008</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" t="n">
         <v>54788</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" t="n">
         <v>53528</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" t="n">
         <v>51008</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" t="n">
         <v>38993</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" t="n">
         <v>28742</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" t="n">
         <v>37651</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" t="n">
         <v>54157</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" t="n">
         <v>65841</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" t="n">
         <v>63054</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" t="n">
         <v>43319</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" t="n">
         <v>31706</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AC20" t="n">
         <v>14129</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AD20" t="n">
         <v>50624</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AE20" t="n">
         <v>74714</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AF20" t="n">
         <v>59676</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AG20" t="n">
         <v>58716</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AH20" t="n">
         <v>55725</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" t="n">
         <v>53179</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AJ20" t="n">
         <v>41452</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AK20" t="n">
         <v>52922</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AL20" t="n">
         <v>31473</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AM20" t="n">
         <v>39520</v>
       </c>
-      <c r="AN20" s="5">
+      <c r="AN20" t="n">
         <v>57118</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AO20" t="n">
         <v>43484</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AP20" t="n">
         <v>50203</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AQ20" t="n">
         <v>70491</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AR20" t="n">
         <v>52510</v>
       </c>
-      <c r="AS20" s="5">
+      <c r="AS20" t="n">
         <v>56357</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AT20" t="n">
         <v>67834</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="AU20" t="n">
         <v>51218</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="AV20" t="n">
         <v>65884</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="AW20" t="n">
         <v>77479</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="AX20" t="n">
         <v>45373</v>
       </c>
-      <c r="AY20" s="5">
+      <c r="AY20" t="n">
         <v>34622</v>
       </c>
-      <c r="AZ20" s="5">
+      <c r="AZ20" t="n">
         <v>59441</v>
       </c>
-      <c r="BA20" s="5">
+      <c r="BA20" t="n">
         <v>51734</v>
       </c>
-      <c r="BB20" s="5">
+      <c r="BB20" t="n">
         <v>49023</v>
       </c>
-      <c r="BC20" s="5">
+      <c r="BC20" t="n">
         <v>52869</v>
       </c>
-      <c r="BD20" s="5">
+      <c r="BD20" t="n">
         <v>41678</v>
       </c>
-      <c r="BE20" s="5">
+      <c r="BE20" t="n">
         <v>45177</v>
       </c>
-      <c r="BF20" s="5">
+      <c r="BF20" t="n">
         <v>51175</v>
       </c>
-      <c r="BG20" s="5">
+      <c r="BG20" t="n">
         <v>47640</v>
       </c>
-      <c r="BH20" s="5">
+      <c r="BH20" t="n">
         <v>54314</v>
       </c>
-      <c r="BI20" s="5">
+      <c r="BI20" t="n">
         <v>62381</v>
       </c>
-      <c r="BJ20" s="5">
+      <c r="BJ20" t="n">
         <v>40308</v>
       </c>
-      <c r="BK20" s="5">
+      <c r="BK20" t="n">
         <v>32432</v>
       </c>
-      <c r="BL20" s="5">
+      <c r="BL20" t="n">
         <v>58906</v>
       </c>
-      <c r="BM20" s="5">
+      <c r="BM20" t="n">
         <v>34457</v>
       </c>
+      <c r="BN20" t="n">
+        <v>39929</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>91027</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" t="n">
         <v>14841</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" t="n">
         <v>45506</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" t="n">
         <v>83172</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" t="n">
         <v>100003</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" t="n">
         <v>107696</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" t="n">
         <v>95237</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" t="n">
         <v>103233</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" t="n">
         <v>119035</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" t="n">
         <v>118809</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" t="n">
         <v>125016</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" t="n">
         <v>129568</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" t="n">
         <v>115552</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" t="n">
         <v>55166</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" t="n">
         <v>78007</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" t="n">
         <v>86226</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" t="n">
         <v>80820</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" t="n">
         <v>85339</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" t="n">
         <v>80136</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" t="n">
         <v>81818</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" t="n">
         <v>75515</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" t="n">
         <v>80156</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" t="n">
         <v>93508</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" t="n">
         <v>88076</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="Z21" t="n">
         <v>112068</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" t="n">
         <v>75390</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21" t="n">
         <v>57010</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AC21" t="n">
         <v>38037</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AD21" t="n">
         <v>53032</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AE21" t="n">
         <v>80071</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" t="n">
         <v>81042</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AG21" t="n">
         <v>78003</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AH21" t="n">
         <v>71342</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AI21" t="n">
         <v>72194</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AJ21" t="n">
         <v>43386</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AK21" t="n">
         <v>57130</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AL21" t="n">
         <v>30090</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AM21" t="n">
         <v>60008</v>
       </c>
-      <c r="AN21" s="5">
+      <c r="AN21" t="n">
         <v>55010</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="AO21" t="n">
         <v>40012</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AP21" t="n">
         <v>54002</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="AQ21" t="n">
         <v>66072</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AR21" t="n">
         <v>45400</v>
       </c>
-      <c r="AS21" s="5">
+      <c r="AS21" t="n">
         <v>52858</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="AT21" t="n">
         <v>54568</v>
       </c>
-      <c r="AU21" s="5">
+      <c r="AU21" t="n">
         <v>71002</v>
       </c>
-      <c r="AV21" s="5">
+      <c r="AV21" t="n">
         <v>73018</v>
       </c>
-      <c r="AW21" s="5">
+      <c r="AW21" t="n">
         <v>60018</v>
       </c>
-      <c r="AX21" s="5">
+      <c r="AX21" t="n">
         <v>73716</v>
       </c>
-      <c r="AY21" s="5">
+      <c r="AY21" t="n">
         <v>29320</v>
       </c>
-      <c r="AZ21" s="5">
+      <c r="AZ21" t="n">
         <v>54010</v>
       </c>
-      <c r="BA21" s="5">
+      <c r="BA21" t="n">
         <v>48306</v>
       </c>
-      <c r="BB21" s="5">
+      <c r="BB21" t="n">
         <v>55218</v>
       </c>
-      <c r="BC21" s="5">
+      <c r="BC21" t="n">
         <v>44626</v>
       </c>
-      <c r="BD21" s="5">
+      <c r="BD21" t="n">
         <v>33822</v>
       </c>
-      <c r="BE21" s="5">
+      <c r="BE21" t="n">
         <v>31042</v>
       </c>
-      <c r="BF21" s="5">
+      <c r="BF21" t="n">
         <v>53102</v>
       </c>
-      <c r="BG21" s="5">
+      <c r="BG21" t="n">
         <v>51380</v>
       </c>
-      <c r="BH21" s="5">
+      <c r="BH21" t="n">
         <v>53052</v>
       </c>
-      <c r="BI21" s="5">
+      <c r="BI21" t="n">
         <v>52466</v>
       </c>
-      <c r="BJ21" s="5">
+      <c r="BJ21" t="n">
         <v>47987</v>
       </c>
-      <c r="BK21" s="5">
+      <c r="BK21" t="n">
         <v>30006</v>
       </c>
-      <c r="BL21" s="5">
+      <c r="BL21" t="n">
         <v>40173</v>
       </c>
-      <c r="BM21" s="5">
+      <c r="BM21" t="n">
         <v>34011</v>
       </c>
+      <c r="BN21" t="n">
+        <v>50016</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>LI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
         <v>1447</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" t="n">
         <v>2622</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
         <v>4646</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" t="n">
         <v>6126</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" t="n">
         <v>5379</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" t="n">
         <v>2300</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" t="n">
         <v>4900</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" t="n">
         <v>5539</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" t="n">
         <v>4323</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" t="n">
         <v>7713</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" t="n">
         <v>8589</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" t="n">
         <v>9433</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" t="n">
         <v>7094</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" t="n">
         <v>7649</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" t="n">
         <v>13485</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" t="n">
         <v>14087</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" t="n">
         <v>12268</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" t="n">
         <v>8414</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" t="n">
         <v>11034</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" t="n">
         <v>4167</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" t="n">
         <v>11496</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" t="n">
         <v>13024</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" t="n">
         <v>10422</v>
       </c>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5">
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="n">
         <v>11531</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22" t="n">
         <v>10052</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AJ22" t="n">
         <v>15034</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AK22" t="n">
         <v>21233</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AL22" t="n">
         <v>15141</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AM22" t="n">
         <v>16620</v>
       </c>
-      <c r="AN22" s="5">
+      <c r="AN22" t="n">
         <v>20823</v>
       </c>
-      <c r="AO22" s="5">
+      <c r="AO22" t="n">
         <v>25681</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AP22" t="n">
         <v>28277</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" t="n">
         <v>32575</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AR22" t="n">
         <v>34134</v>
       </c>
-      <c r="AS22" s="5">
+      <c r="AS22" t="n">
         <v>34914</v>
       </c>
-      <c r="AT22" s="5">
+      <c r="AT22" t="n">
         <v>36060</v>
       </c>
-      <c r="AU22" s="5">
+      <c r="AU22" t="n">
         <v>40423</v>
       </c>
-      <c r="AV22" s="5">
+      <c r="AV22" t="n">
         <v>41030</v>
       </c>
-      <c r="AW22" s="5">
+      <c r="AW22" t="n">
         <v>50354</v>
       </c>
-      <c r="AX22" s="5">
+      <c r="AX22" t="n">
         <v>31166</v>
       </c>
-      <c r="AY22" s="5">
+      <c r="AY22" t="n">
         <v>20252</v>
       </c>
-      <c r="AZ22" s="5">
+      <c r="AZ22" t="n">
         <v>28984</v>
       </c>
-      <c r="BA22" s="5">
+      <c r="BA22" t="n">
         <v>25787</v>
       </c>
-      <c r="BB22" s="5">
+      <c r="BB22" t="n">
         <v>35020</v>
       </c>
-      <c r="BC22" s="5">
+      <c r="BC22" t="n">
         <v>47774</v>
       </c>
-      <c r="BD22" s="5">
+      <c r="BD22" t="n">
         <v>51000</v>
       </c>
-      <c r="BE22" s="5">
+      <c r="BE22" t="n">
         <v>48122</v>
       </c>
-      <c r="BF22" s="5">
+      <c r="BF22" t="n">
         <v>53709</v>
       </c>
-      <c r="BG22" s="5">
+      <c r="BG22" t="n">
         <v>51443</v>
       </c>
-      <c r="BH22" s="5">
+      <c r="BH22" t="n">
         <v>48743</v>
       </c>
-      <c r="BI22" s="5">
+      <c r="BI22" t="n">
         <v>58513</v>
       </c>
-      <c r="BJ22" s="5">
+      <c r="BJ22" t="n">
         <v>29927</v>
       </c>
-      <c r="BK22" s="5">
+      <c r="BK22" t="n">
         <v>26264</v>
       </c>
-      <c r="BL22" s="5">
+      <c r="BL22" t="n">
         <v>36674</v>
       </c>
-      <c r="BM22" s="5">
+      <c r="BM22" t="n">
         <v>33939</v>
       </c>
+      <c r="BN22" t="n">
+        <v>40856</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5">
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Wuling (Silver)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="n">
         <v>39687</v>
       </c>
-      <c r="AS23" s="5">
+      <c r="AS23" t="n">
         <v>40640</v>
       </c>
-      <c r="AT23" s="5">
+      <c r="AT23" t="n">
         <v>43603</v>
       </c>
-      <c r="AU23" s="5">
+      <c r="AU23" t="n">
         <v>45796</v>
       </c>
-      <c r="AV23" s="5">
+      <c r="AV23" t="n">
         <v>49087</v>
       </c>
-      <c r="AW23" s="5">
+      <c r="AW23" t="n">
         <v>70785</v>
       </c>
-      <c r="AX23" s="5">
+      <c r="AX23" t="n">
         <v>11923</v>
       </c>
-      <c r="AY23" s="5">
+      <c r="AY23" t="n">
         <v>21193</v>
       </c>
-      <c r="AZ23" s="5">
+      <c r="AZ23" t="n">
         <v>30889</v>
       </c>
-      <c r="BA23" s="5">
+      <c r="BA23" t="n">
         <v>30749</v>
       </c>
-      <c r="BB23" s="5">
+      <c r="BB23" t="n">
         <v>29006</v>
       </c>
-      <c r="BC23" s="5">
+      <c r="BC23" t="n">
         <v>30556</v>
       </c>
-      <c r="BD23" s="5">
+      <c r="BD23" t="n">
         <v>20394</v>
       </c>
-      <c r="BE23" s="5">
+      <c r="BE23" t="n">
         <v>24769</v>
       </c>
-      <c r="BF23" s="5">
+      <c r="BF23" t="n">
         <v>42876</v>
       </c>
-      <c r="BG23" s="5">
+      <c r="BG23" t="n">
         <v>52740</v>
       </c>
-      <c r="BH23" s="5">
+      <c r="BH23" t="n">
         <v>64904</v>
       </c>
-      <c r="BI23" s="5">
+      <c r="BI23" t="n">
         <v>50410</v>
       </c>
-      <c r="BJ23" s="5">
+      <c r="BJ23" t="n">
         <v>13803</v>
       </c>
-      <c r="BK23" s="5">
+      <c r="BK23" t="n">
         <v>18282</v>
       </c>
-      <c r="BL23" s="5">
+      <c r="BL23" t="n">
         <v>25540</v>
       </c>
-      <c r="BM23" s="5">
+      <c r="BM23" t="n">
         <v>32627</v>
       </c>
+      <c r="BN23" t="n">
+        <v>25947</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Hongqi</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>12626</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" t="n">
         <v>1110</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" t="n">
         <v>8619</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" t="n">
         <v>14519</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" t="n">
         <v>15103</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" t="n">
         <v>15420</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" t="n">
         <v>16614</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" t="n">
         <v>21020</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" t="n">
         <v>21518</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" t="n">
         <v>23018</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" t="n">
         <v>25086</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" t="n">
         <v>22031</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" t="n">
         <v>32526</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" t="n">
         <v>13009</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" t="n">
         <v>24525</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" t="n">
         <v>21905</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" t="n">
         <v>26121</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" t="n">
         <v>27126</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" t="n">
         <v>25453</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" t="n">
         <v>10039</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" t="n">
         <v>20299</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24" t="n">
         <v>35009</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24" t="n">
         <v>25468</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" t="n">
         <v>39133</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z24" t="n">
         <v>42158</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" t="n">
         <v>21643</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24" t="n">
         <v>12380</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" t="n">
         <v>6812</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AD24" t="n">
         <v>25020</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AE24" t="n">
         <v>21859</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AF24" t="n">
         <v>22275</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AG24" t="n">
         <v>26012</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AH24" t="n">
         <v>33005</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AI24" t="n">
         <v>34252</v>
       </c>
-      <c r="AJ24" s="5">
+      <c r="AJ24" t="n">
         <v>25240</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AK24" t="n">
         <v>39421</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AL24" t="n">
         <v>18007</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AM24" t="n">
         <v>13059</v>
       </c>
-      <c r="AN24" s="5">
+      <c r="AN24" t="n">
         <v>30011</v>
       </c>
-      <c r="AO24" s="5">
+      <c r="AO24" t="n">
         <v>22000</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AP24" t="n">
         <v>25201</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AQ24" t="n">
         <v>33001</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AR24" t="n">
         <v>31533</v>
       </c>
-      <c r="AS24" s="5">
+      <c r="AS24" t="n">
         <v>38510</v>
       </c>
-      <c r="AT24" s="5">
+      <c r="AT24" t="n">
         <v>39071</v>
       </c>
-      <c r="AU24" s="5">
+      <c r="AU24" t="n">
         <v>35000</v>
       </c>
-      <c r="AV24" s="5">
+      <c r="AV24" t="n">
         <v>36458</v>
       </c>
-      <c r="AW24" s="5">
+      <c r="AW24" t="n">
         <v>28926</v>
       </c>
-      <c r="AX24" s="5">
+      <c r="AX24" t="n">
         <v>40053</v>
       </c>
-      <c r="AY24" s="5">
+      <c r="AY24" t="n">
         <v>25196</v>
       </c>
-      <c r="AZ24" s="5">
+      <c r="AZ24" t="n">
         <v>35275</v>
       </c>
-      <c r="BA24" s="5">
+      <c r="BA24" t="n">
         <v>29935</v>
       </c>
-      <c r="BB24" s="5">
+      <c r="BB24" t="n">
         <v>30961</v>
       </c>
-      <c r="BC24" s="5">
+      <c r="BC24" t="n">
         <v>40212</v>
       </c>
-      <c r="BD24" s="5">
+      <c r="BD24" t="n">
         <v>30053</v>
       </c>
-      <c r="BE24" s="5">
+      <c r="BE24" t="n">
         <v>38674</v>
       </c>
-      <c r="BF24" s="5">
+      <c r="BF24" t="n">
         <v>42261</v>
       </c>
-      <c r="BG24" s="5">
+      <c r="BG24" t="n">
         <v>35391</v>
       </c>
-      <c r="BH24" s="5">
+      <c r="BH24" t="n">
         <v>37675</v>
       </c>
-      <c r="BI24" s="5">
+      <c r="BI24" t="n">
         <v>26656</v>
       </c>
-      <c r="BJ24" s="5">
+      <c r="BJ24" t="n">
         <v>43356</v>
       </c>
-      <c r="BK24" s="5">
+      <c r="BK24" t="n">
         <v>27560</v>
       </c>
-      <c r="BL24" s="5">
+      <c r="BL24" t="n">
         <v>38976</v>
       </c>
-      <c r="BM24" s="5">
+      <c r="BM24" t="n">
         <v>31459</v>
       </c>
+      <c r="BN24" t="n">
+        <v>32479</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5">
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="n">
         <v>7058</v>
       </c>
-      <c r="BB25" s="5">
+      <c r="BB25" t="n">
         <v>8646</v>
       </c>
-      <c r="BC25" s="5">
+      <c r="BC25" t="n">
         <v>14296</v>
       </c>
-      <c r="BD25" s="5">
+      <c r="BD25" t="n">
         <v>13120</v>
       </c>
-      <c r="BE25" s="5">
+      <c r="BE25" t="n">
         <v>13007</v>
       </c>
-      <c r="BF25" s="5">
+      <c r="BF25" t="n">
         <v>13559</v>
       </c>
-      <c r="BG25" s="5">
+      <c r="BG25" t="n">
         <v>20726</v>
       </c>
-      <c r="BH25" s="5">
+      <c r="BH25" t="n">
         <v>23156</v>
       </c>
-      <c r="BI25" s="5">
+      <c r="BI25" t="n">
         <v>25815</v>
       </c>
-      <c r="BJ25" s="5">
+      <c r="BJ25" t="n">
         <v>22897</v>
       </c>
-      <c r="BK25" s="5">
+      <c r="BK25" t="n">
         <v>23728</v>
       </c>
-      <c r="BL25" s="5">
+      <c r="BL25" t="n">
         <v>29244</v>
       </c>
-      <c r="BM25" s="5">
+      <c r="BM25" t="n">
         <v>28585</v>
       </c>
+      <c r="BN25" t="n">
+        <v>28013</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Lynk&amp;CO</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>9008</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" t="n">
         <v>2066</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" t="n">
         <v>7369</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" t="n">
         <v>10156</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" t="n">
         <v>12950</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" t="n">
         <v>13214</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" t="n">
         <v>15331</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" t="n">
         <v>17098</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" t="n">
         <v>18745</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" t="n">
         <v>21868</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" t="n">
         <v>22798</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" t="n">
         <v>24853</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" t="n">
         <v>25501</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" t="n">
         <v>11825</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" t="n">
         <v>16390</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" t="n">
         <v>19021</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" t="n">
         <v>18059</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" t="n">
         <v>17077</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" t="n">
         <v>18225</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" t="n">
         <v>6039</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" t="n">
         <v>15823</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" t="n">
         <v>22770</v>
       </c>
-      <c r="X26" s="5">
+      <c r="X26" t="n">
         <v>23789</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" t="n">
         <v>25206</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" t="n">
         <v>17965</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AA26" t="n">
         <v>9835</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AB26" t="n">
         <v>12621</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AC26" t="n">
         <v>9743</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AD26" t="n">
         <v>10637</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AE26" t="n">
         <v>12452</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AF26" t="n">
         <v>13953</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AG26" t="n">
         <v>14038</v>
       </c>
-      <c r="AH26" s="5">
+      <c r="AH26" t="n">
         <v>15482</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AI26" t="n">
         <v>14876</v>
       </c>
-      <c r="AJ26" s="5">
+      <c r="AJ26" t="n">
         <v>17405</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AK26" t="n">
         <v>21242</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AL26" t="n">
         <v>10422</v>
       </c>
-      <c r="AM26" s="5">
+      <c r="AM26" t="n">
         <v>11640</v>
       </c>
-      <c r="AN26" s="5">
+      <c r="AN26" t="n">
         <v>13647</v>
       </c>
-      <c r="AO26" s="5">
+      <c r="AO26" t="n">
         <v>13613</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AP26" t="n">
         <v>14188</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AQ26" t="n">
         <v>15826</v>
       </c>
-      <c r="AR26" s="5">
+      <c r="AR26" t="n">
         <v>16748</v>
       </c>
-      <c r="AS26" s="5">
+      <c r="AS26" t="n">
         <v>18509</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AT26" t="n">
         <v>21447</v>
       </c>
-      <c r="AU26" s="5">
+      <c r="AU26" t="n">
         <v>24374</v>
       </c>
-      <c r="AV26" s="5">
+      <c r="AV26" t="n">
         <v>29657</v>
       </c>
-      <c r="AW26" s="5">
+      <c r="AW26" t="n">
         <v>25370</v>
       </c>
-      <c r="AX26" s="5">
+      <c r="AX26" t="n">
         <v>28032</v>
       </c>
-      <c r="AY26" s="5">
+      <c r="AY26" t="n">
         <v>13154</v>
       </c>
-      <c r="AZ26" s="5">
+      <c r="AZ26" t="n">
         <v>19265</v>
       </c>
-      <c r="BA26" s="5">
+      <c r="BA26" t="n">
         <v>18489</v>
       </c>
-      <c r="BB26" s="5">
+      <c r="BB26" t="n">
         <v>21076</v>
       </c>
-      <c r="BC26" s="5">
+      <c r="BC26" t="n">
         <v>23646</v>
       </c>
-      <c r="BD26" s="5">
+      <c r="BD26" t="n">
         <v>20646</v>
       </c>
-      <c r="BE26" s="5">
+      <c r="BE26" t="n">
         <v>22071</v>
       </c>
-      <c r="BF26" s="5">
+      <c r="BF26" t="n">
         <v>24865</v>
       </c>
-      <c r="BG26" s="5">
+      <c r="BG26" t="n">
         <v>29790</v>
       </c>
-      <c r="BH26" s="5">
+      <c r="BH26" t="n">
         <v>30654</v>
       </c>
-      <c r="BI26" s="5">
+      <c r="BI26" t="n">
         <v>24919</v>
       </c>
-      <c r="BJ26" s="5">
+      <c r="BJ26" t="n">
         <v>28885</v>
       </c>
-      <c r="BK26" s="5">
+      <c r="BK26" t="n">
         <v>16688</v>
       </c>
-      <c r="BL26" s="5">
+      <c r="BL26" t="n">
         <v>24594</v>
       </c>
-      <c r="BM26" s="5">
+      <c r="BM26" t="n">
         <v>26797</v>
       </c>
+      <c r="BN26" t="n">
+        <v>26825</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GAC Trumpchi</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>33976</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" t="n">
         <v>4095</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" t="n">
         <v>17865</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" t="n">
         <v>18927</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" t="n">
         <v>23136</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" t="n">
         <v>22641</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" t="n">
         <v>23732</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" t="n">
         <v>26943</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" t="n">
         <v>31671</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" t="n">
         <v>31387</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" t="n">
         <v>33987</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" t="n">
         <v>32171</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" t="n">
         <v>34992</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" t="n">
         <v>14126</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" t="n">
         <v>27153</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" t="n">
         <v>26502</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" t="n">
         <v>26797</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" t="n">
         <v>25332</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" t="n">
         <v>29665</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" t="n">
         <v>18594</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" t="n">
         <v>22989</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27" t="n">
         <v>35489</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27" t="n">
         <v>35902</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Y27" t="n">
         <v>33068</v>
       </c>
-      <c r="Z27" s="5">
+      <c r="Z27" t="n">
         <v>37278</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AA27" t="n">
         <v>24399</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AB27" t="n">
         <v>30369</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AC27" t="n">
         <v>20205</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AD27" t="n">
         <v>29511</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AE27" t="n">
         <v>32837</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AF27" t="n">
         <v>31408</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AG27" t="n">
         <v>30101</v>
       </c>
-      <c r="AH27" s="5">
+      <c r="AH27" t="n">
         <v>33608</v>
       </c>
-      <c r="AI27" s="5">
+      <c r="AI27" t="n">
         <v>31404</v>
       </c>
-      <c r="AJ27" s="5">
+      <c r="AJ27" t="n">
         <v>25850</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AK27" t="n">
         <v>38145</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AL27" t="n">
         <v>24139</v>
       </c>
-      <c r="AM27" s="5">
+      <c r="AM27" t="n">
         <v>26923</v>
       </c>
-      <c r="AN27" s="5">
+      <c r="AN27" t="n">
         <v>34904</v>
       </c>
-      <c r="AO27" s="5">
+      <c r="AO27" t="n">
         <v>30046</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AP27" t="n">
         <v>32809</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AQ27" t="n">
         <v>41134</v>
       </c>
-      <c r="AR27" s="5">
+      <c r="AR27" t="n">
         <v>31344</v>
       </c>
-      <c r="AS27" s="5">
+      <c r="AS27" t="n">
         <v>37585</v>
       </c>
-      <c r="AT27" s="5">
+      <c r="AT27" t="n">
         <v>37286</v>
       </c>
-      <c r="AU27" s="5">
+      <c r="AU27" t="n">
         <v>38010</v>
       </c>
-      <c r="AV27" s="5">
+      <c r="AV27" t="n">
         <v>37216</v>
       </c>
-      <c r="AW27" s="5">
+      <c r="AW27" t="n">
         <v>35325</v>
       </c>
-      <c r="AX27" s="5">
+      <c r="AX27" t="n">
         <v>33799</v>
       </c>
-      <c r="AY27" s="5">
+      <c r="AY27" t="n">
         <v>18472</v>
       </c>
-      <c r="AZ27" s="5">
+      <c r="AZ27" t="n">
         <v>33213</v>
       </c>
-      <c r="BA27" s="5">
+      <c r="BA27" t="n">
         <v>37733</v>
       </c>
-      <c r="BB27" s="5">
+      <c r="BB27" t="n">
         <v>32881</v>
       </c>
-      <c r="BC27" s="5">
+      <c r="BC27" t="n">
         <v>32784</v>
       </c>
-      <c r="BD27" s="5">
+      <c r="BD27" t="n">
         <v>25797</v>
       </c>
-      <c r="BE27" s="5">
+      <c r="BE27" t="n">
         <v>27530</v>
       </c>
-      <c r="BF27" s="5">
+      <c r="BF27" t="n">
         <v>34768</v>
       </c>
-      <c r="BG27" s="5">
+      <c r="BG27" t="n">
         <v>35152</v>
       </c>
-      <c r="BH27" s="5">
+      <c r="BH27" t="n">
         <v>44406</v>
       </c>
-      <c r="BI27" s="5">
+      <c r="BI27" t="n">
         <v>58056</v>
       </c>
-      <c r="BJ27" s="5">
+      <c r="BJ27" t="n">
         <v>18277</v>
       </c>
-      <c r="BK27" s="5">
+      <c r="BK27" t="n">
         <v>18449</v>
       </c>
-      <c r="BL27" s="5">
+      <c r="BL27" t="n">
         <v>32465</v>
       </c>
-      <c r="BM27" s="5">
+      <c r="BM27" t="n">
         <v>24651</v>
       </c>
+      <c r="BN27" t="n">
+        <v>23564</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Aion</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>2949</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" t="n">
         <v>1583</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" t="n">
         <v>3458</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" t="n">
         <v>3950</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" t="n">
         <v>4084</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" t="n">
         <v>4188</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" t="n">
         <v>4993</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" t="n">
         <v>6239</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" t="n">
         <v>6876</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" t="n">
         <v>7013</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" t="n">
         <v>7190</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" t="n">
         <v>7020</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" t="n">
         <v>7356</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" t="n">
         <v>3239</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" t="n">
         <v>7013</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" t="n">
         <v>8305</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" t="n">
         <v>8416</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" t="n">
         <v>8536</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" t="n">
         <v>10506</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" t="n">
         <v>11613</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" t="n">
         <v>13572</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" t="n">
         <v>12064</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28" t="n">
         <v>16064</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" t="n">
         <v>16072</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="Z28" t="n">
         <v>16660</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AA28" t="n">
         <v>9017</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28" t="n">
         <v>22006</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AC28" t="n">
         <v>11230</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AD28" t="n">
         <v>22088</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AE28" t="n">
         <v>25023</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AF28" t="n">
         <v>25477</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AG28" t="n">
         <v>28920</v>
       </c>
-      <c r="AH28" s="5">
+      <c r="AH28" t="n">
         <v>32526</v>
       </c>
-      <c r="AI28" s="5">
+      <c r="AI28" t="n">
         <v>32402</v>
       </c>
-      <c r="AJ28" s="5">
+      <c r="AJ28" t="n">
         <v>31133</v>
       </c>
-      <c r="AK28" s="5">
+      <c r="AK28" t="n">
         <v>32493</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AL28" t="n">
         <v>10740</v>
       </c>
-      <c r="AM28" s="5">
+      <c r="AM28" t="n">
         <v>31105</v>
       </c>
-      <c r="AN28" s="5">
+      <c r="AN28" t="n">
         <v>42402</v>
       </c>
-      <c r="AO28" s="5">
+      <c r="AO28" t="n">
         <v>45428</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AP28" t="n">
         <v>47366</v>
       </c>
-      <c r="AQ28" s="5">
+      <c r="AQ28" t="n">
         <v>47121</v>
       </c>
-      <c r="AR28" s="5">
+      <c r="AR28" t="n">
         <v>45651</v>
       </c>
-      <c r="AS28" s="5">
+      <c r="AS28" t="n">
         <v>46042</v>
       </c>
-      <c r="AT28" s="5">
+      <c r="AT28" t="n">
         <v>52428</v>
       </c>
-      <c r="AU28" s="5">
+      <c r="AU28" t="n">
         <v>41993</v>
       </c>
-      <c r="AV28" s="5">
+      <c r="AV28" t="n">
         <v>39785</v>
       </c>
-      <c r="AW28" s="5">
+      <c r="AW28" t="n">
         <v>44541</v>
       </c>
-      <c r="AX28" s="5">
+      <c r="AX28" t="n">
         <v>10396</v>
       </c>
-      <c r="AY28" s="5">
+      <c r="AY28" t="n">
         <v>10105</v>
       </c>
-      <c r="AZ28" s="5">
+      <c r="AZ28" t="n">
         <v>28094</v>
       </c>
-      <c r="BA28" s="5">
+      <c r="BA28" t="n">
         <v>21162</v>
       </c>
-      <c r="BB28" s="5">
+      <c r="BB28" t="n">
         <v>29982</v>
       </c>
-      <c r="BC28" s="5">
+      <c r="BC28" t="n">
         <v>25557</v>
       </c>
-      <c r="BD28" s="5">
+      <c r="BD28" t="n">
         <v>28011</v>
       </c>
-      <c r="BE28" s="5">
+      <c r="BE28" t="n">
         <v>30891</v>
       </c>
-      <c r="BF28" s="5">
+      <c r="BF28" t="n">
         <v>37974</v>
       </c>
-      <c r="BG28" s="5">
+      <c r="BG28" t="n">
         <v>35105</v>
       </c>
-      <c r="BH28" s="5">
+      <c r="BH28" t="n">
         <v>38708</v>
       </c>
-      <c r="BI28" s="5">
+      <c r="BI28" t="n">
         <v>62437</v>
       </c>
-      <c r="BJ28" s="5">
+      <c r="BJ28" t="n">
         <v>6923</v>
       </c>
-      <c r="BK28" s="5">
+      <c r="BK28" t="n">
         <v>13713</v>
       </c>
-      <c r="BL28" s="5">
+      <c r="BL28" t="n">
         <v>23615</v>
       </c>
-      <c r="BM28" s="5">
+      <c r="BM28" t="n">
         <v>22310</v>
       </c>
+      <c r="BN28" t="n">
+        <v>16500</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>23954</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" t="n">
         <v>1572</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" t="n">
         <v>17626</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" t="n">
         <v>23534</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" t="n">
         <v>23829</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" t="n">
         <v>22223</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" t="n">
         <v>20570</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" t="n">
         <v>20390</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" t="n">
         <v>26141</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" t="n">
         <v>26485</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" t="n">
         <v>23429</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" t="n">
         <v>19504</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" t="n">
         <v>17857</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" t="n">
         <v>9872</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" t="n">
         <v>9456</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" t="n">
         <v>12530</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" t="n">
         <v>13544</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" t="n">
         <v>13998</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" t="n">
         <v>13639</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" t="n">
         <v>11725</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" t="n">
         <v>9307</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29" t="n">
         <v>13687</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29" t="n">
         <v>12301</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Y29" t="n">
         <v>15939</v>
       </c>
-      <c r="Z29" s="5">
+      <c r="Z29" t="n">
         <v>13780</v>
       </c>
-      <c r="AA29" s="5">
+      <c r="AA29" t="n">
         <v>11079</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AB29" t="n">
         <v>11149</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AC29" t="n">
         <v>5697</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AD29" t="n">
         <v>8082</v>
       </c>
-      <c r="AE29" s="5">
+      <c r="AE29" t="n">
         <v>12641</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AF29" t="n">
         <v>14730</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AG29" t="n">
         <v>11190</v>
       </c>
-      <c r="AH29" s="5">
+      <c r="AH29" t="n">
         <v>11311</v>
       </c>
-      <c r="AI29" s="5">
+      <c r="AI29" t="n">
         <v>10995</v>
       </c>
-      <c r="AJ29" s="5">
+      <c r="AJ29" t="n">
         <v>9647</v>
       </c>
-      <c r="AK29" s="5">
+      <c r="AK29" t="n">
         <v>10324</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AL29" t="n">
         <v>8757</v>
       </c>
-      <c r="AM29" s="5">
+      <c r="AM29" t="n">
         <v>10214</v>
       </c>
-      <c r="AN29" s="5">
+      <c r="AN29" t="n">
         <v>9594</v>
       </c>
-      <c r="AO29" s="5">
+      <c r="AO29" t="n">
         <v>9835</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AP29" t="n">
         <v>9613</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="AQ29" t="n">
         <v>15844</v>
       </c>
-      <c r="AR29" s="5">
+      <c r="AR29" t="n">
         <v>15836</v>
       </c>
-      <c r="AS29" s="5">
+      <c r="AS29" t="n">
         <v>16519</v>
       </c>
-      <c r="AT29" s="5">
+      <c r="AT29" t="n">
         <v>16605</v>
       </c>
-      <c r="AU29" s="5">
+      <c r="AU29" t="n">
         <v>17102</v>
       </c>
-      <c r="AV29" s="5">
+      <c r="AV29" t="n">
         <v>18245</v>
       </c>
-      <c r="AW29" s="5">
+      <c r="AW29" t="n">
         <v>19062</v>
       </c>
-      <c r="AX29" s="5">
+      <c r="AX29" t="n">
         <v>15112</v>
       </c>
-      <c r="AY29" s="5">
+      <c r="AY29" t="n">
         <v>11838</v>
       </c>
-      <c r="AZ29" s="5">
+      <c r="AZ29" t="n">
         <v>22787</v>
       </c>
-      <c r="BA29" s="5">
+      <c r="BA29" t="n">
         <v>19807</v>
       </c>
-      <c r="BB29" s="5">
+      <c r="BB29" t="n">
         <v>19083</v>
       </c>
-      <c r="BC29" s="5">
+      <c r="BC29" t="n">
         <v>20652</v>
       </c>
-      <c r="BD29" s="5">
+      <c r="BD29" t="n">
         <v>22151</v>
       </c>
-      <c r="BE29" s="5">
+      <c r="BE29" t="n">
         <v>22498</v>
       </c>
-      <c r="BF29" s="5">
+      <c r="BF29" t="n">
         <v>21958</v>
       </c>
-      <c r="BG29" s="5">
+      <c r="BG29" t="n">
         <v>23690</v>
       </c>
-      <c r="BH29" s="5">
+      <c r="BH29" t="n">
         <v>24280</v>
       </c>
-      <c r="BI29" s="5">
+      <c r="BI29" t="n">
         <v>24062</v>
       </c>
-      <c r="BJ29" s="5">
+      <c r="BJ29" t="n">
         <v>15699</v>
       </c>
-      <c r="BK29" s="5">
+      <c r="BK29" t="n">
         <v>17902</v>
       </c>
-      <c r="BL29" s="5">
+      <c r="BL29" t="n">
         <v>22949</v>
       </c>
-      <c r="BM29" s="5">
+      <c r="BM29" t="n">
         <v>22155</v>
       </c>
+      <c r="BN29" t="n">
+        <v>22075</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5">
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="n">
         <v>11467</v>
       </c>
-      <c r="AS30" s="5">
+      <c r="AS30" t="n">
         <v>11638</v>
       </c>
-      <c r="AT30" s="5">
+      <c r="AT30" t="n">
         <v>13785</v>
       </c>
-      <c r="AU30" s="5">
+      <c r="AU30" t="n">
         <v>17040</v>
       </c>
-      <c r="AV30" s="5">
+      <c r="AV30" t="n">
         <v>14386</v>
       </c>
-      <c r="AW30" s="5">
+      <c r="AW30" t="n">
         <v>13143</v>
       </c>
-      <c r="AX30" s="5">
+      <c r="AX30" t="n">
         <v>20067</v>
       </c>
-      <c r="AY30" s="5">
+      <c r="AY30" t="n">
         <v>10164</v>
       </c>
-      <c r="AZ30" s="5">
+      <c r="AZ30" t="n">
         <v>16005</v>
       </c>
-      <c r="BA30" s="5">
+      <c r="BA30" t="n">
         <v>20469</v>
       </c>
-      <c r="BB30" s="5">
+      <c r="BB30" t="n">
         <v>20326</v>
       </c>
-      <c r="BC30" s="5">
+      <c r="BC30" t="n">
         <v>26059</v>
       </c>
-      <c r="BD30" s="5">
+      <c r="BD30" t="n">
         <v>15707</v>
       </c>
-      <c r="BE30" s="5">
+      <c r="BE30" t="n">
         <v>16350</v>
       </c>
-      <c r="BF30" s="5">
+      <c r="BF30" t="n">
         <v>18740</v>
       </c>
-      <c r="BG30" s="5">
+      <c r="BG30" t="n">
         <v>19123</v>
       </c>
-      <c r="BH30" s="5">
+      <c r="BH30" t="n">
         <v>20189</v>
       </c>
-      <c r="BI30" s="5">
+      <c r="BI30" t="n">
         <v>21879</v>
       </c>
-      <c r="BJ30" s="5">
+      <c r="BJ30" t="n">
         <v>12845</v>
       </c>
-      <c r="BK30" s="5">
+      <c r="BK30" t="n">
         <v>11762</v>
       </c>
-      <c r="BL30" s="5">
+      <c r="BL30" t="n">
         <v>17381</v>
       </c>
-      <c r="BM30" s="5">
+      <c r="BM30" t="n">
         <v>19201</v>
       </c>
+      <c r="BN30" t="n">
+        <v>20900</v>
+      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Roewe</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>39822</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" t="n">
         <v>4686</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" t="n">
         <v>15390</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" t="n">
         <v>23968</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" t="n">
         <v>35879</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" t="n">
         <v>33369</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" t="n">
         <v>34883</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" t="n">
         <v>32135</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" t="n">
         <v>37385</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" t="n">
         <v>39168</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" t="n">
         <v>38529</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" t="n">
         <v>51188</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" t="n">
         <v>33316</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" t="n">
         <v>13596</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" t="n">
         <v>27706</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" t="n">
         <v>30223</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" t="n">
         <v>28400</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" t="n">
         <v>22341</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" t="n">
         <v>22145</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" t="n">
         <v>27456</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" t="n">
         <v>34993</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" t="n">
         <v>46700</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" t="n">
         <v>31224</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31" t="n">
         <v>32180</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="Z31" t="n">
         <v>38714</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AA31" t="n">
         <v>25873</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AB31" t="n">
         <v>28740</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AC31" t="n">
         <v>7517</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AD31" t="n">
         <v>25100</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AE31" t="n">
         <v>28922</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AF31" t="n">
         <v>29226</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AG31" t="n">
         <v>31530</v>
       </c>
-      <c r="AH31" s="5">
+      <c r="AH31" t="n">
         <v>24140</v>
       </c>
-      <c r="AI31" s="5">
+      <c r="AI31" t="n">
         <v>19692</v>
       </c>
-      <c r="AJ31" s="5">
+      <c r="AJ31" t="n">
         <v>12300</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AK31" t="n">
         <v>16188</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AL31" t="n">
         <v>12123</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AM31" t="n">
         <v>14838</v>
       </c>
-      <c r="AN31" s="5">
+      <c r="AN31" t="n">
         <v>13858</v>
       </c>
-      <c r="AO31" s="5">
+      <c r="AO31" t="n">
         <v>14696</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AP31" t="n">
         <v>15253</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AQ31" t="n">
         <v>15907</v>
       </c>
-      <c r="AR31" s="5">
+      <c r="AR31" t="n">
         <v>17419</v>
       </c>
-      <c r="AS31" s="5">
+      <c r="AS31" t="n">
         <v>16678</v>
       </c>
-      <c r="AT31" s="5">
+      <c r="AT31" t="n">
         <v>25782</v>
       </c>
-      <c r="AU31" s="5">
+      <c r="AU31" t="n">
         <v>19421</v>
       </c>
-      <c r="AV31" s="5">
+      <c r="AV31" t="n">
         <v>24352</v>
       </c>
-      <c r="AW31" s="5">
+      <c r="AW31" t="n">
         <v>35940</v>
       </c>
-      <c r="AX31" s="5">
+      <c r="AX31" t="n">
         <v>13337</v>
       </c>
-      <c r="AY31" s="5">
+      <c r="AY31" t="n">
         <v>5113</v>
       </c>
-      <c r="AZ31" s="5">
+      <c r="AZ31" t="n">
         <v>11523</v>
       </c>
-      <c r="BA31" s="5">
+      <c r="BA31" t="n">
         <v>11421</v>
       </c>
-      <c r="BB31" s="5">
+      <c r="BB31" t="n">
         <v>16081</v>
       </c>
-      <c r="BC31" s="5">
+      <c r="BC31" t="n">
         <v>15998</v>
       </c>
-      <c r="BD31" s="5">
+      <c r="BD31" t="n">
         <v>13836</v>
       </c>
-      <c r="BE31" s="5">
+      <c r="BE31" t="n">
         <v>18920</v>
       </c>
-      <c r="BF31" s="5">
+      <c r="BF31" t="n">
         <v>22035</v>
       </c>
-      <c r="BG31" s="5">
+      <c r="BG31" t="n">
         <v>23056</v>
       </c>
-      <c r="BH31" s="5">
+      <c r="BH31" t="n">
         <v>24760</v>
       </c>
-      <c r="BI31" s="5">
+      <c r="BI31" t="n">
         <v>23518</v>
       </c>
-      <c r="BJ31" s="5">
+      <c r="BJ31" t="n">
         <v>12863</v>
       </c>
-      <c r="BK31" s="5">
+      <c r="BK31" t="n">
         <v>9699</v>
       </c>
-      <c r="BL31" s="5">
+      <c r="BL31" t="n">
         <v>18045</v>
       </c>
-      <c r="BM31" s="5">
+      <c r="BM31" t="n">
         <v>15454</v>
       </c>
+      <c r="BN31" t="n">
+        <v>14425</v>
+      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5">
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>33302</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" t="n">
         <v>1668</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" t="n">
         <v>30838</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" t="n">
         <v>34244</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" t="n">
         <v>40134</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" t="n">
         <v>44128</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" t="n">
         <v>38154</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" t="n">
         <v>40153</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" t="n">
         <v>40195</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" t="n">
         <v>42596</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" t="n">
         <v>49426</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" t="n">
         <v>51343</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" t="n">
         <v>40191</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" t="n">
         <v>19080</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" t="n">
         <v>37060</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" t="n">
         <v>31328</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" t="n">
         <v>34275</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" t="n">
         <v>32151</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" t="n">
         <v>23946</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" t="n">
         <v>23754</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" t="n">
         <v>19390</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" t="n">
         <v>25755</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" t="n">
         <v>33302</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" t="n">
         <v>40333</v>
       </c>
-      <c r="Z32" s="5">
+      <c r="Z32" t="n">
         <v>24056</v>
       </c>
-      <c r="AA32" s="5">
+      <c r="AA32" t="n">
         <v>16457</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AB32" t="n">
         <v>17102</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AC32" t="n">
         <v>10012</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AD32" t="n">
         <v>8435</v>
       </c>
-      <c r="AE32" s="5">
+      <c r="AE32" t="n">
         <v>18097</v>
       </c>
-      <c r="AF32" s="5">
+      <c r="AF32" t="n">
         <v>24031</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AG32" t="n">
         <v>26065</v>
       </c>
-      <c r="AH32" s="5">
+      <c r="AH32" t="n">
         <v>33007</v>
       </c>
-      <c r="AI32" s="5">
+      <c r="AI32" t="n">
         <v>26554</v>
       </c>
-      <c r="AJ32" s="5">
+      <c r="AJ32" t="n">
         <v>21552</v>
       </c>
-      <c r="AK32" s="5">
+      <c r="AK32" t="n">
         <v>25056</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AL32" t="n">
         <v>15028</v>
       </c>
-      <c r="AM32" s="5">
+      <c r="AM32" t="n">
         <v>17003</v>
       </c>
-      <c r="AN32" s="5">
+      <c r="AN32" t="n">
         <v>27013</v>
       </c>
-      <c r="AO32" s="5">
+      <c r="AO32" t="n">
         <v>16003</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AP32" t="n">
         <v>19262</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AQ32" t="n">
         <v>24018</v>
       </c>
-      <c r="AR32" s="5">
+      <c r="AR32" t="n">
         <v>12530</v>
       </c>
-      <c r="AS32" s="5">
+      <c r="AS32" t="n">
         <v>20178</v>
       </c>
-      <c r="AT32" s="5">
+      <c r="AT32" t="n">
         <v>22394</v>
       </c>
-      <c r="AU32" s="5">
+      <c r="AU32" t="n">
         <v>18827</v>
       </c>
-      <c r="AV32" s="5">
+      <c r="AV32" t="n">
         <v>21661</v>
       </c>
-      <c r="AW32" s="5">
+      <c r="AW32" t="n">
         <v>28525</v>
       </c>
-      <c r="AX32" s="5">
+      <c r="AX32" t="n">
         <v>14224</v>
       </c>
-      <c r="AY32" s="5">
+      <c r="AY32" t="n">
         <v>12110</v>
       </c>
-      <c r="AZ32" s="5">
+      <c r="AZ32" t="n">
         <v>21440</v>
       </c>
-      <c r="BA32" s="5">
+      <c r="BA32" t="n">
         <v>12645</v>
       </c>
-      <c r="BB32" s="5">
+      <c r="BB32" t="n">
         <v>16617</v>
       </c>
-      <c r="BC32" s="5">
+      <c r="BC32" t="n">
         <v>14524</v>
       </c>
-      <c r="BD32" s="5">
+      <c r="BD32" t="n">
         <v>7220</v>
       </c>
-      <c r="BE32" s="5">
+      <c r="BE32" t="n">
         <v>13007</v>
       </c>
-      <c r="BF32" s="5">
+      <c r="BF32" t="n">
         <v>15553</v>
       </c>
-      <c r="BG32" s="5">
+      <c r="BG32" t="n">
         <v>11024</v>
       </c>
-      <c r="BH32" s="5">
+      <c r="BH32" t="n">
         <v>16349</v>
       </c>
-      <c r="BI32" s="5">
+      <c r="BI32" t="n">
         <v>15112</v>
       </c>
-      <c r="BJ32" s="5">
+      <c r="BJ32" t="n">
         <v>16810</v>
       </c>
-      <c r="BK32" s="5">
+      <c r="BK32" t="n">
         <v>10585</v>
       </c>
-      <c r="BL32" s="5">
+      <c r="BL32" t="n">
         <v>16825</v>
       </c>
-      <c r="BM32" s="5">
+      <c r="BM32" t="n">
         <v>14964</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>18833</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BM32">
-    <sortCondition descending="1" ref="BM2:BM32"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>